--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,28 +961,28 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="n">
         <v>40</v>
       </c>
-      <c r="Y4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
         <v>1.51</v>
@@ -1489,7 +1489,7 @@
         <v>1.57</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>230</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
         <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.16</v>
+        <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>5.3</v>
@@ -1915,7 +1915,7 @@
         <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
@@ -2050,7 +2050,7 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>12.5</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
         <v>5.9</v>
@@ -2197,7 +2197,7 @@
         <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
         <v>42</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2293,7 +2293,7 @@
         <v>1.48</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
         <v>8.800000000000001</v>
@@ -2302,7 +2302,7 @@
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I15" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J15" t="n">
         <v>3.9</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G16" t="n">
         <v>6.4</v>
@@ -2590,7 +2590,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
         <v>2.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
         <v>2.32</v>
@@ -2737,7 +2737,7 @@
         <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
         <v>32</v>
@@ -2794,7 +2794,7 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2839,7 +2839,7 @@
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
@@ -2965,7 +2965,7 @@
         <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>5.5</v>
@@ -3007,7 +3007,7 @@
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3031,19 +3031,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3103,7 +3103,7 @@
         <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
@@ -3259,25 +3259,25 @@
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
         <v>1.6</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3328,13 +3328,13 @@
         <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G22" t="n">
         <v>1.67</v>
@@ -3376,10 +3376,10 @@
         <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
         <v>4.6</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3505,10 +3505,10 @@
         <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
         <v>1.79</v>
@@ -3643,13 +3643,13 @@
         <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
@@ -3670,7 +3670,7 @@
         <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="G29" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.07</v>
+        <v>1.49</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="H31" t="n">
         <v>1.36</v>
@@ -4606,22 +4606,22 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
         <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
         <v>2.58</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.6</v>
@@ -967,23 +967,23 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.72</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.68</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1018,16 +1018,16 @@
         <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>38</v>
@@ -1078,16 +1078,16 @@
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1219,10 +1219,10 @@
         <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
         <v>1.57</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
         <v>230</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
         <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.78</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
@@ -1888,7 +1888,7 @@
         <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I11" t="n">
         <v>1.86</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2050,7 +2050,7 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
         <v>12.5</v>
@@ -2194,7 +2194,7 @@
         <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>42</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK13" t="n">
         <v>15.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
         <v>5.3</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,19 +2725,19 @@
         <v>2.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
         <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
         <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>30</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>230</v>
@@ -2764,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>95</v>
@@ -2788,13 +2788,13 @@
         <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G19" t="n">
         <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -3001,13 +3001,13 @@
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,28 +3016,28 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="AF19" t="n">
         <v>9.800000000000001</v>
@@ -3046,7 +3046,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3100,10 +3100,10 @@
         <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G21" t="n">
         <v>1.38</v>
@@ -3241,13 +3241,13 @@
         <v>10.5</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3256,28 +3256,28 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
         <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
         <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>70</v>
@@ -3298,7 +3298,7 @@
         <v>460</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
         <v>12.5</v>
@@ -3310,7 +3310,7 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="n">
         <v>1.67</v>
@@ -3376,10 +3376,10 @@
         <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
         <v>4.6</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3505,7 +3505,7 @@
         <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
         <v>4.9</v>
@@ -3514,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
         <v>1.79</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
         <v>1.72</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>1.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
         <v>2.64</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G29" t="n">
         <v>2.16</v>
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Q29" t="n">
         <v>2.46</v>
@@ -4450,7 +4450,7 @@
         <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>
@@ -4459,7 +4459,7 @@
         <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K30" t="n">
         <v>3.2</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>970</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.36</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.3</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.12</v>
-      </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>2.92</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
         <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
         <v>2.16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
         <v>2.58</v>
@@ -1078,13 +1078,13 @@
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
         <v>2.24</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.87</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
         <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>7.8</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>230</v>
@@ -1756,10 +1756,10 @@
         <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G13" t="n">
         <v>1.33</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
         <v>42</v>
@@ -2428,7 +2428,7 @@
         <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
         <v>1.86</v>
@@ -2590,7 +2590,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
         <v>30</v>
@@ -2758,7 +2758,7 @@
         <v>230</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -2770,7 +2770,7 @@
         <v>95</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2788,13 +2788,13 @@
         <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2860,7 +2860,7 @@
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2995,7 +2995,7 @@
         <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
@@ -3007,7 +3007,7 @@
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3034,7 +3034,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>830</v>
@@ -3052,19 +3052,19 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" t="n">
         <v>10.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>5.7</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>70</v>
@@ -3304,7 +3304,7 @@
         <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
         <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
         <v>4.4</v>
@@ -3400,7 +3400,7 @@
         <v>2.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H23" t="n">
         <v>4.9</v>
@@ -4048,16 +4048,16 @@
         <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4585,13 +4585,13 @@
         <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J31" t="n">
         <v>3.45</v>
@@ -4615,13 +4615,13 @@
         <v>1.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,16 +670,16 @@
         <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K2" t="n">
         <v>2.98</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
         <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -970,13 +970,13 @@
         <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
         <v>1.72</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.48</v>
@@ -991,31 +991,31 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1024,25 +1024,25 @@
         <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
         <v>4.1</v>
@@ -1081,7 +1081,7 @@
         <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="n">
         <v>7.6</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1543,28 +1543,28 @@
         <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
         <v>230</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
         <v>2.6</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
@@ -1885,19 +1885,19 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I11" t="n">
         <v>1.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
         <v>2.24</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>42</v>
@@ -2245,7 +2245,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>140</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
         <v>1.81</v>
@@ -2695,7 +2695,7 @@
         <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2704,10 +2704,10 @@
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,19 +2722,19 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
         <v>2.12</v>
@@ -2746,46 +2746,46 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
         <v>230</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -2860,7 +2860,7 @@
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
         <v>1.9</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3037,10 +3037,10 @@
         <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
@@ -3058,7 +3058,7 @@
         <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3322,13 +3322,13 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3376,7 +3376,7 @@
         <v>5.6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>4.4</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q22" t="n">
         <v>1.59</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
         <v>1.81</v>
@@ -3643,7 +3643,7 @@
         <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
         <v>3.95</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
         <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K25" t="n">
         <v>6.4</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3910,19 +3910,19 @@
         <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>1.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4045,13 +4045,13 @@
         <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4315,19 +4315,19 @@
         <v>2.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
         <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
         <v>2.24</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>2.94</v>
@@ -4480,7 +4480,7 @@
         <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.3</v>
+        <v>3.65</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4723,13 +4723,13 @@
         <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
         <v>3.85</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,10 +670,10 @@
         <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -811,7 +811,7 @@
         <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -835,7 +835,7 @@
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
         <v>2.16</v>
@@ -1222,7 +1222,7 @@
         <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>1.57</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
         <v>2.02</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.31</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.33</v>
-      </c>
       <c r="H13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
         <v>5.9</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
         <v>1.7</v>
@@ -2191,10 +2191,10 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,43 +2218,43 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,10 +2290,10 @@
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2434,10 +2434,10 @@
         <v>1.86</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
         <v>2.44</v>
@@ -2752,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>230</v>
@@ -2773,28 +2773,28 @@
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2830,13 +2830,13 @@
         <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,22 +2992,22 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3040,19 +3040,19 @@
         <v>810</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3100,10 +3100,10 @@
         <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
@@ -3262,7 +3262,7 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
         <v>1.62</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>40</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
         <v>4.4</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
         <v>1.81</v>
@@ -3535,7 +3535,7 @@
         <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>3.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q25" t="n">
         <v>1.51</v>
@@ -3910,7 +3910,7 @@
         <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
         <v>2.18</v>
@@ -4480,7 +4480,7 @@
         <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G31" t="n">
         <v>1.97</v>
@@ -4612,7 +4612,7 @@
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q31" t="n">
         <v>1.95</v>
@@ -4624,7 +4624,7 @@
         <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
         <v>2.04</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,34 +667,34 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.34</v>
@@ -703,76 +703,76 @@
         <v>3.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -820,16 +820,16 @@
         <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
         <v>3.1</v>
@@ -838,76 +838,76 @@
         <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
@@ -1615,7 +1615,7 @@
         <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -1756,7 +1756,7 @@
         <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1780,7 +1780,7 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
         <v>1.86</v>
@@ -2026,7 +2026,7 @@
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.72</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
         <v>13.5</v>
@@ -2185,16 +2185,16 @@
         <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2236,25 +2236,25 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
         <v>1.74</v>
@@ -2431,10 +2431,10 @@
         <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2455,7 +2455,7 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>6.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>1.58</v>
@@ -2773,7 +2773,7 @@
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -2785,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -2992,7 +2992,7 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
         <v>1.87</v>
@@ -3022,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3034,7 +3034,7 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>810</v>
@@ -3241,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
         <v>1.58</v>
@@ -3274,10 +3274,10 @@
         <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,25 +3286,25 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AB21" t="n">
         <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
         <v>3.95</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G25" t="n">
         <v>1.37</v>
@@ -3805,7 +3805,7 @@
         <v>2.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4720,10 +4720,10 @@
         <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
         <v>6.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>1.03</v>
@@ -955,13 +955,13 @@
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -970,7 +970,7 @@
         <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
         <v>1.72</v>
@@ -985,10 +985,10 @@
         <v>2.72</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
@@ -1090,16 +1090,16 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.98</v>
@@ -1108,76 +1108,76 @@
         <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1354,100 +1354,100 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1555,7 +1555,7 @@
         <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
         <v>28</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G9" t="n">
         <v>2.04</v>
@@ -1645,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
         <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
@@ -2050,7 +2050,7 @@
         <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H13" t="n">
         <v>13.5</v>
@@ -2164,7 +2164,7 @@
         <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>6.4</v>
@@ -2179,10 +2179,10 @@
         <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
@@ -2191,10 +2191,10 @@
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U13" t="n">
         <v>1.72</v>
@@ -2209,7 +2209,7 @@
         <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.43</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
         <v>1.74</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
         <v>1.52</v>
@@ -2728,7 +2728,7 @@
         <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.44</v>
@@ -2773,16 +2773,16 @@
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK17" t="n">
         <v>14.5</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.93</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.3</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -3016,25 +3016,25 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>810</v>
@@ -3046,13 +3046,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3109,10 +3109,10 @@
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
         <v>2.44</v>
@@ -3274,10 +3274,10 @@
         <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3301,10 +3301,10 @@
         <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
         <v>1.69</v>
@@ -3376,13 +3376,13 @@
         <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
         <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3508,7 +3508,7 @@
         <v>1.81</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
@@ -3640,7 +3640,7 @@
         <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H24" t="n">
         <v>3.65</v>
@@ -3670,7 +3670,7 @@
         <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J26" t="n">
         <v>2.8</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
         <v>5.2</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
         <v>2.24</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G31" t="n">
         <v>1.97</v>
@@ -4600,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4612,16 +4612,16 @@
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R31" t="n">
         <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
         <v>1.81</v>
@@ -4663,7 +4663,7 @@
         <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>2.92</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
         <v>2.1</v>
@@ -700,7 +700,7 @@
         <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.11</v>
@@ -718,7 +718,7 @@
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>6.4</v>
@@ -727,7 +727,7 @@
         <v>7.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
         <v>60</v>
@@ -739,7 +739,7 @@
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>60</v>
@@ -748,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -826,7 +826,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -844,7 +844,7 @@
         <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="U3" t="n">
         <v>2.4</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,19 +967,19 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.72</v>
@@ -1036,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
         <v>970</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="S6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,13 +1255,13 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1495,16 +1495,16 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.22</v>
@@ -1513,22 +1513,22 @@
         <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1630,16 +1630,16 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1648,76 +1648,76 @@
         <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.54</v>
+        <v>1.84</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>1.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
         <v>1.88</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.24</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>13.5</v>
@@ -2164,13 +2164,13 @@
         <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2191,31 +2191,31 @@
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>95</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="AB13" t="n">
         <v>8.800000000000001</v>
@@ -2224,40 +2224,40 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF13" t="n">
         <v>7.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
         <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G14" t="n">
         <v>1.43</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K14" t="n">
         <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H15" t="n">
         <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.12</v>
@@ -2458,76 +2458,76 @@
         <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I16" t="n">
         <v>1.6</v>
@@ -2575,16 +2575,16 @@
         <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>2.2</v>
@@ -2593,76 +2593,76 @@
         <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2704,13 +2704,13 @@
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2740,10 +2740,10 @@
         <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
         <v>29</v>
@@ -2773,7 +2773,7 @@
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>24</v>
@@ -2785,7 +2785,7 @@
         <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2827,34 +2827,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
         <v>4.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
         <v>2.2</v>
@@ -2863,76 +2863,76 @@
         <v>1.79</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2977,10 +2977,10 @@
         <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,7 +2992,7 @@
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
         <v>1.87</v>
@@ -3004,70 +3004,70 @@
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>810</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="n">
         <v>9.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
         <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
         <v>2.42</v>
@@ -3115,16 +3115,16 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
         <v>2.08</v>
@@ -3133,76 +3133,76 @@
         <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3250,7 +3250,7 @@
         <v>5.6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3271,43 +3271,43 @@
         <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA21" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="n">
         <v>8.6</v>
@@ -3316,28 +3316,28 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="G22" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
         <v>4.4</v>
       </c>
-      <c r="K22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="G23" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3643,28 +3643,28 @@
         <v>2.06</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>3.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
         <v>2.22</v>
@@ -3673,76 +3673,76 @@
         <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G25" t="n">
         <v>1.37</v>
@@ -3790,94 +3790,94 @@
         <v>6.4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -3925,16 +3925,16 @@
         <v>3.05</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
         <v>1.46</v>
@@ -3943,76 +3943,76 @@
         <v>2.88</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
         <v>3.35</v>
@@ -4060,94 +4060,94 @@
         <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
         <v>1.07</v>
@@ -4213,76 +4213,76 @@
         <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
         <v>2.24</v>
@@ -4324,10 +4324,10 @@
         <v>5.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q29" t="n">
         <v>2.8</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
         <v>1.97</v>
@@ -4726,13 +4726,13 @@
         <v>3.95</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q32" t="n">
         <v>2.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -688,13 +688,13 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="P2" t="n">
         <v>1.34</v>
@@ -703,10 +703,10 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
         <v>2.42</v>
@@ -838,10 +838,10 @@
         <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T3" t="n">
         <v>1.39</v>
@@ -961,22 +961,22 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
         <v>1.5</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
         <v>1.57</v>
@@ -1495,28 +1495,28 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1630,28 +1630,28 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,52 +1660,52 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>40</v>
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>1.84</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>14</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.6</v>
-      </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.32</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>20</v>
       </c>
-      <c r="Y11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>40</v>
-      </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
@@ -2035,49 +2035,49 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2116,10 +2116,10 @@
         <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO12" t="n">
         <v>48</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G13" t="n">
         <v>1.3</v>
@@ -2161,37 +2161,37 @@
         <v>13.5</v>
       </c>
       <c r="I13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
         <v>2.22</v>
@@ -2209,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="n">
         <v>140</v>
@@ -2221,7 +2221,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>50</v>
@@ -2245,10 +2245,10 @@
         <v>9.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>220</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.41</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2353,7 +2353,7 @@
         <v>410</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>11.5</v>
@@ -2389,7 +2389,7 @@
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
         <v>210</v>
@@ -2428,7 +2428,7 @@
         <v>5.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.84</v>
@@ -2437,31 +2437,31 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
         <v>1.73</v>
@@ -2479,16 +2479,16 @@
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>12</v>
       </c>
       <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2575,16 +2575,16 @@
         <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.2</v>
@@ -2593,19 +2593,19 @@
         <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W16" t="n">
         <v>1.17</v>
@@ -2614,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
         <v>9.4</v>
@@ -2635,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
         <v>24</v>
@@ -2644,25 +2644,25 @@
         <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AK16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
         <v>100</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G17" t="n">
         <v>1.51</v>
@@ -2701,37 +2701,37 @@
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.78</v>
@@ -2740,13 +2740,13 @@
         <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
         <v>2.96</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
         <v>34</v>
@@ -2755,40 +2755,40 @@
         <v>65</v>
       </c>
       <c r="AA17" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
         <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
         <v>95</v>
@@ -2797,7 +2797,7 @@
         <v>5.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
         <v>1.97</v>
@@ -2845,31 +2845,31 @@
         <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
@@ -2884,7 +2884,7 @@
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
         <v>32</v>
@@ -2896,22 +2896,22 @@
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2920,16 +2920,16 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>46</v>
@@ -2971,7 +2971,7 @@
         <v>5.9</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
         <v>4.3</v>
@@ -2980,19 +2980,19 @@
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
         <v>1.87</v>
@@ -3001,7 +3001,7 @@
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.91</v>
@@ -3010,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -3022,10 +3022,10 @@
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
         <v>8.800000000000001</v>
@@ -3049,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
         <v>16</v>
@@ -3100,7 +3100,7 @@
         <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
@@ -3115,28 +3115,28 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
         <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.67</v>
@@ -3148,7 +3148,7 @@
         <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -3178,10 +3178,10 @@
         <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>44</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.38</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.39</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -3244,13 +3244,13 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3262,7 +3262,7 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
         <v>1.63</v>
@@ -3271,37 +3271,37 @@
         <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
         <v>95</v>
       </c>
       <c r="AA21" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>36</v>
@@ -3310,7 +3310,7 @@
         <v>150</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3334,10 +3334,10 @@
         <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>1.07</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.24</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.44</v>
-      </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3640,64 +3640,64 @@
         <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>3.95</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X24" t="n">
         <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
         <v>75</v>
@@ -3706,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>15.5</v>
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>19.5</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>5.8</v>
@@ -3790,64 +3790,64 @@
         <v>6.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF25" t="n">
         <v>9.800000000000001</v>
@@ -3856,10 +3856,10 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -3871,13 +3871,13 @@
         <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
         <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -4051,7 +4051,7 @@
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4060,19 +4060,19 @@
         <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O27" t="n">
         <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
         <v>2.28</v>
@@ -4318,7 +4318,7 @@
         <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
         <v>5.2</v>
@@ -4330,94 +4330,94 @@
         <v>3.15</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P29" t="n">
         <v>1.43</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4465,16 +4465,16 @@
         <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
         <v>1.46</v>
@@ -4483,76 +4483,76 @@
         <v>2.88</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G31" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.6</v>
@@ -4600,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4621,7 +4621,7 @@
         <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.81</v>
@@ -4630,10 +4630,10 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
         <v>15.5</v>
@@ -4720,10 +4720,10 @@
         <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H32" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
         <v>6.6</v>
@@ -4735,16 +4735,16 @@
         <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.54</v>
@@ -4753,76 +4753,76 @@
         <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
         <v>7.2</v>
@@ -826,7 +826,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -838,16 +838,16 @@
         <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
         <v>1.39</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
         <v>2.38</v>
@@ -856,58 +856,58 @@
         <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,16 +967,16 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" t="n">
         <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
         <v>1.5</v>
@@ -985,13 +985,13 @@
         <v>2.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1000,10 +1000,10 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>970</v>
@@ -1012,16 +1012,16 @@
         <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1030,13 +1030,13 @@
         <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>970</v>
@@ -1078,7 +1078,7 @@
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
         <v>2.22</v>
@@ -1096,16 +1096,16 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>1.82</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
@@ -1213,7 +1213,7 @@
         <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
         <v>7.4</v>
@@ -1222,28 +1222,28 @@
         <v>2.46</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>2.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S6" t="n">
         <v>5.5</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
         <v>7.4</v>
       </c>
       <c r="H8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.55</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -1513,19 +1513,19 @@
         <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="W8" t="n">
         <v>1.16</v>
@@ -1546,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>11.5</v>
@@ -1555,7 +1555,7 @@
         <v>16.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
         <v>28</v>
@@ -1573,7 +1573,7 @@
         <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1645,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1654,70 +1654,70 @@
         <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
         <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1789,16 +1789,16 @@
         <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1825,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1846,10 +1846,10 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.35</v>
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -1951,43 +1951,43 @@
         <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>38</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="n">
         <v>80</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN11" t="n">
         <v>85</v>
       </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>95</v>
-      </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2077,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2095,7 +2095,7 @@
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
         <v>30</v>
@@ -2179,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
@@ -2197,7 +2197,7 @@
         <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2254,7 +2254,7 @@
         <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO13" t="n">
         <v>360</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G14" t="n">
         <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,7 +2302,7 @@
         <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2320,10 +2320,10 @@
         <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
         <v>2.96</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>1.8</v>
@@ -2455,7 +2455,7 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
@@ -2464,7 +2464,7 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.18</v>
@@ -2473,7 +2473,7 @@
         <v>2.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
@@ -2488,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G16" t="n">
         <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I16" t="n">
         <v>1.6</v>
@@ -2599,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>2.68</v>
@@ -2614,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
         <v>9.4</v>
@@ -2641,13 +2641,13 @@
         <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="n">
         <v>90</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.51</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -2704,7 +2704,7 @@
         <v>7.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -2713,16 +2713,16 @@
         <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>5.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" t="n">
         <v>1.59</v>
@@ -2740,16 +2740,16 @@
         <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="n">
         <v>65</v>
@@ -2758,31 +2758,31 @@
         <v>220</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
         <v>13.5</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -2893,7 +2893,7 @@
         <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.800000000000001</v>
@@ -2986,13 +2986,13 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
         <v>1.87</v>
@@ -3001,7 +3001,7 @@
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
         <v>1.91</v>
@@ -3016,7 +3016,7 @@
         <v>2.5</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -3061,10 +3061,10 @@
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
         <v>100</v>
@@ -3100,7 +3100,7 @@
         <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
@@ -3118,7 +3118,7 @@
         <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
         <v>4.4</v>
@@ -3148,7 +3148,7 @@
         <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
@@ -3184,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
         <v>32</v>
@@ -3193,7 +3193,7 @@
         <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>80</v>
@@ -3202,7 +3202,7 @@
         <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3241,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
         <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3268,37 +3268,37 @@
         <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
         <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
         <v>95</v>
       </c>
       <c r="AA21" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
         <v>12.5</v>
@@ -3310,7 +3310,7 @@
         <v>150</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3337,7 +3337,7 @@
         <v>5.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I22" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.8</v>
       </c>
       <c r="J22" t="n">
         <v>4.5</v>
@@ -3388,7 +3388,7 @@
         <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>5.6</v>
@@ -3409,67 +3409,67 @@
         <v>2.54</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
         <v>27</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>28</v>
       </c>
       <c r="Z22" t="n">
         <v>48</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
         <v>55</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3529,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
         <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T23" t="n">
         <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3556,10 +3556,10 @@
         <v>2.24</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
         <v>40</v>
@@ -3586,16 +3586,16 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -3604,7 +3604,7 @@
         <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO23" t="n">
         <v>60</v>
@@ -3640,7 +3640,7 @@
         <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>
@@ -3670,7 +3670,7 @@
         <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
         <v>1.49</v>
@@ -3694,10 +3694,10 @@
         <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
         <v>75</v>
@@ -3724,7 +3724,7 @@
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="n">
         <v>24</v>
@@ -3784,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K25" t="n">
         <v>6.4</v>
@@ -3826,7 +3826,7 @@
         <v>3.6</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="n">
         <v>40</v>
@@ -3850,7 +3850,7 @@
         <v>160</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -3862,10 +3862,10 @@
         <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -3874,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO25" t="n">
         <v>170</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G26" t="n">
         <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K26" t="n">
         <v>3.05</v>
@@ -3928,13 +3928,13 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>1.46</v>
+        <v>2.36</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P26" t="n">
         <v>1.46</v>
@@ -3943,76 +3943,76 @@
         <v>2.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH26" t="n">
         <v>27</v>
       </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>30</v>
-      </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4042,40 +4042,40 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="O27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
         <v>1.19</v>
@@ -4087,58 +4087,58 @@
         <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4339,13 +4339,13 @@
         <v>2.18</v>
       </c>
       <c r="O29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P29" t="n">
         <v>1.43</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>1.11</v>
@@ -4354,16 +4354,16 @@
         <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="X29" t="n">
         <v>9</v>
@@ -4450,19 +4450,19 @@
         <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.94</v>
+        <v>2.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4483,22 +4483,22 @@
         <v>2.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="X30" t="n">
         <v>9</v>
@@ -4585,19 +4585,19 @@
         <v>1.86</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4618,10 +4618,10 @@
         <v>1.94</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="T31" t="n">
         <v>1.81</v>
@@ -4633,61 +4633,61 @@
         <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,52 +4765,52 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W32" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
         <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -703,13 +703,13 @@
         <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
         <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U2" t="n">
         <v>1.56</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
         <v>80</v>
@@ -772,7 +772,7 @@
         <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
@@ -1219,10 +1219,10 @@
         <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>8.800000000000001</v>
@@ -1519,10 +1519,10 @@
         <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>2.8</v>
@@ -1639,13 +1639,13 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1654,7 +1654,7 @@
         <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
@@ -1666,7 +1666,7 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1678,10 +1678,10 @@
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>16.5</v>
@@ -1690,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
         <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1795,10 +1795,10 @@
         <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1816,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
@@ -1921,7 +1921,7 @@
         <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
         <v>1.87</v>
@@ -2413,34 +2413,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.8</v>
       </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,82 +2452,82 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>100</v>
       </c>
-      <c r="AN15" t="n">
-        <v>60</v>
-      </c>
       <c r="AO15" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.4</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.58</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.78</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>2.68</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>1.17</v>
+        <v>2.98</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.5</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>55</v>
-      </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>180</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO16" t="n">
         <v>90</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.48</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1.77</v>
       </c>
       <c r="I17" t="n">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
         <v>32</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="n">
         <v>65</v>
       </c>
-      <c r="AA17" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AM17" t="n">
         <v>90</v>
       </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AN17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO17" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
         <v>85</v>
       </c>
-      <c r="AB18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AJ18" t="n">
         <v>16</v>
       </c>
-      <c r="AE18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2986,88 +2986,88 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
         <v>16.5</v>
       </c>
-      <c r="AL19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>9</v>
-      </c>
       <c r="AO19" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>1.37</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.65</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL20" t="n">
         <v>36</v>
       </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="G21" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -3256,88 +3256,88 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W21" t="n">
         <v>2.46</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3.6</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z21" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="AA21" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE22" t="n">
         <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>17</v>
       </c>
-      <c r="AK22" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3529,85 +3529,85 @@
         <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK23" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>9.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="R24" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.92</v>
+        <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.96</v>
+        <v>3.6</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.35</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1.38</v>
+        <v>2.98</v>
       </c>
       <c r="H25" t="n">
-        <v>9.4</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="K25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S25" t="n">
         <v>6.4</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.32</v>
-      </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="V25" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>36</v>
+        <v>7.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.7</v>
+        <v>65</v>
       </c>
       <c r="AO25" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.78</v>
+        <v>3.95</v>
       </c>
       <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.05</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6.4</v>
-      </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="X26" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>27</v>
-      </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM26" t="n">
         <v>85</v>
       </c>
-      <c r="AM26" t="n">
-        <v>280</v>
-      </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,70 +4033,70 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.07</v>
       </c>
-      <c r="N27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.07</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,70 +4168,70 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="P28" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
         <v>1000</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
         <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.3</v>
@@ -4495,10 +4495,10 @@
         <v>1.52</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
         <v>9</v>
@@ -4591,7 +4591,7 @@
         <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.55</v>
@@ -4606,22 +4606,22 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
         <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
         <v>1.81</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="H32" t="n">
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4765,13 +4765,13 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4823,6 +4823,546 @@
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Atletico Choloma</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="n">
+        <v>950</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X35" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,19 +670,19 @@
         <v>3.15</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -694,28 +694,28 @@
         <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R2" t="n">
         <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
@@ -766,13 +766,13 @@
         <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN2" t="n">
         <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>6.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.39</v>
@@ -850,7 +850,7 @@
         <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="W3" t="n">
         <v>1.17</v>
@@ -970,7 +970,7 @@
         <v>2.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
         <v>1.63</v>
@@ -979,10 +979,10 @@
         <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V4" t="n">
         <v>1.77</v>
@@ -1096,19 +1096,19 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>8.800000000000001</v>
@@ -1480,7 +1480,7 @@
         <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
         <v>1.54</v>
@@ -1522,7 +1522,7 @@
         <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>2.8</v>
@@ -1531,7 +1531,7 @@
         <v>1.16</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1552,7 +1552,7 @@
         <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1669,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
@@ -1687,7 +1687,7 @@
         <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1783,10 +1783,10 @@
         <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
         <v>1.61</v>
@@ -2020,10 +2020,10 @@
         <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
@@ -2065,10 +2065,10 @@
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2077,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2107,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK12" t="n">
         <v>17.5</v>
@@ -2155,16 +2155,16 @@
         <v>1.29</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
         <v>6.6</v>
@@ -2179,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2194,16 +2194,16 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AF13" t="n">
         <v>7.4</v>
@@ -2251,7 +2251,7 @@
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="n">
         <v>5.1</v>
@@ -2293,7 +2293,7 @@
         <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,10 +2302,10 @@
         <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2338,13 +2338,13 @@
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>90</v>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
         <v>8.199999999999999</v>
@@ -2560,10 +2560,10 @@
         <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
         <v>7.8</v>
@@ -2578,7 +2578,7 @@
         <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>5.6</v>
@@ -2590,16 +2590,16 @@
         <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
         <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
@@ -2608,7 +2608,7 @@
         <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
@@ -2698,7 +2698,7 @@
         <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
         <v>1.8</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
@@ -2737,7 +2737,7 @@
         <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
         <v>2.22</v>
@@ -2758,7 +2758,7 @@
         <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
         <v>19.5</v>
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
         <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
@@ -2860,10 +2860,10 @@
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -2872,10 +2872,10 @@
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
         <v>2.5</v>
@@ -2887,10 +2887,10 @@
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
         <v>8.800000000000001</v>
@@ -2965,7 +2965,7 @@
         <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.15</v>
@@ -3013,7 +3013,7 @@
         <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
@@ -3127,7 +3127,7 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
@@ -3139,16 +3139,16 @@
         <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3172,7 +3172,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
         <v>8.4</v>
@@ -3202,7 +3202,7 @@
         <v>5.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
         <v>1.68</v>
@@ -3241,7 +3241,7 @@
         <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J21" t="n">
         <v>4.5</v>
@@ -3253,19 +3253,19 @@
         <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R21" t="n">
         <v>1.61</v>
@@ -3280,7 +3280,7 @@
         <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
         <v>2.46</v>
@@ -3295,7 +3295,7 @@
         <v>48</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3322,7 +3322,7 @@
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15.5</v>
@@ -3334,10 +3334,10 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
         <v>4.8</v>
@@ -3397,16 +3397,16 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
@@ -3418,7 +3418,7 @@
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3436,7 +3436,7 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>18.5</v>
@@ -3469,7 +3469,7 @@
         <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
         <v>60</v>
@@ -3511,7 +3511,7 @@
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
         <v>2.92</v>
@@ -3643,7 +3643,7 @@
         <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I24" t="n">
         <v>11</v>
@@ -3679,10 +3679,10 @@
         <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
         <v>1.1</v>
@@ -3700,7 +3700,7 @@
         <v>110</v>
       </c>
       <c r="AA24" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3721,13 +3721,13 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -3742,7 +3742,7 @@
         <v>4.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -3793,7 +3793,7 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
         <v>2.36</v>
@@ -3805,13 +3805,13 @@
         <v>1.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R25" t="n">
         <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T25" t="n">
         <v>2.18</v>
@@ -3826,13 +3826,13 @@
         <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
         <v>70</v>
@@ -3844,7 +3844,7 @@
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
@@ -3853,10 +3853,10 @@
         <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3865,19 +3865,19 @@
         <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
         <v>85</v>
       </c>
       <c r="AM25" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="n">
         <v>65</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
@@ -3928,7 +3928,7 @@
         <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>4.5</v>
@@ -3985,7 +3985,7 @@
         <v>48</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
@@ -4012,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
         <v>2.82</v>
@@ -4186,7 +4186,7 @@
         <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4207,7 +4207,7 @@
         <v>1.07</v>
       </c>
       <c r="P28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Q28" t="n">
         <v>2.12</v>
@@ -4225,10 +4225,10 @@
         <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="P29" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q29" t="n">
         <v>3</v>
@@ -4360,64 +4360,64 @@
         <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH29" t="n">
         <v>30</v>
       </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>40</v>
-      </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.94</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4480,7 +4480,7 @@
         <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R30" t="n">
         <v>1.12</v>
@@ -4495,19 +4495,19 @@
         <v>1.52</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
         <v>9</v>
       </c>
       <c r="Y30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G31" t="n">
         <v>1.98</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
         <v>4.9</v>
@@ -4597,7 +4597,7 @@
         <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4618,16 +4618,16 @@
         <v>2.06</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.26</v>
@@ -4636,58 +4636,58 @@
         <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4717,109 +4717,109 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="H32" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.48</v>
+        <v>2.72</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P32" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V32" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W32" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -5017,7 +5017,7 @@
         <v>1.67</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q34" t="n">
         <v>3</v>
@@ -5032,7 +5032,7 @@
         <v>2.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V34" t="n">
         <v>1.45</v>
@@ -5071,7 +5071,7 @@
         <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="n">
         <v>110</v>
@@ -5080,13 +5080,13 @@
         <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
         <v>110</v>
       </c>
       <c r="AM34" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="n">
         <v>80</v>
@@ -5212,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="n">
         <v>32</v>
@@ -5221,13 +5221,13 @@
         <v>46</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -5260,19 +5260,19 @@
         <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
         <v>4.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,34 +5281,34 @@
         <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q36" t="n">
         <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
         <v>4.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U36" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V36" t="n">
         <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
@@ -5326,7 +5326,7 @@
         <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
         <v>970</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,55 +667,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="V2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
@@ -751,10 +751,10 @@
         <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
         <v>80</v>
@@ -763,13 +763,13 @@
         <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AN2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="n">
         <v>90</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
         <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -826,88 +826,88 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="T3" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
         <v>1.51</v>
@@ -985,10 +985,10 @@
         <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>30</v>
@@ -1000,10 +1000,10 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
         <v>970</v>
@@ -1012,31 +1012,31 @@
         <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="n">
         <v>970</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,28 +1102,28 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1132,10 +1132,10 @@
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
         <v>46</v>
@@ -1177,7 +1177,7 @@
         <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1507,19 +1507,19 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
         <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>1.98</v>
@@ -1534,10 +1534,10 @@
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA8" t="n">
         <v>14.5</v>
@@ -1573,7 +1573,7 @@
         <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1582,7 +1582,7 @@
         <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
@@ -1639,22 +1639,22 @@
         <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
@@ -1666,7 +1666,7 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1678,7 +1678,7 @@
         <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
         <v>3.05</v>
@@ -1765,7 +1765,7 @@
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1789,7 +1789,7 @@
         <v>2.82</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
         <v>2.44</v>
@@ -1798,7 +1798,7 @@
         <v>1.61</v>
       </c>
       <c r="W10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -1948,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1960,34 +1960,34 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2050,13 +2050,13 @@
         <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
         <v>1.71</v>
@@ -2155,13 +2155,13 @@
         <v>1.29</v>
       </c>
       <c r="G13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J13" t="n">
         <v>6.2</v>
@@ -2191,19 +2191,19 @@
         <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
         <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2305,7 +2305,7 @@
         <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2326,7 +2326,7 @@
         <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
         <v>2.08</v>
@@ -2350,7 +2350,7 @@
         <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
         <v>8.800000000000001</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2461,10 +2461,10 @@
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
@@ -2566,7 +2566,7 @@
         <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
@@ -2575,7 +2575,7 @@
         <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2590,22 +2590,22 @@
         <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
         <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
         <v>2.96</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G17" t="n">
         <v>5.1</v>
@@ -2701,7 +2701,7 @@
         <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2731,7 +2731,7 @@
         <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
         <v>1.74</v>
@@ -2740,7 +2740,7 @@
         <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
         <v>1.24</v>
@@ -2761,7 +2761,7 @@
         <v>19.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
         <v>1.67</v>
@@ -2854,13 +2854,13 @@
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
@@ -2869,10 +2869,10 @@
         <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
         <v>1.18</v>
@@ -2881,16 +2881,16 @@
         <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
         <v>8.800000000000001</v>
@@ -2902,10 +2902,10 @@
         <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
         <v>100</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
         <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
         <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -2986,25 +2986,25 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
         <v>2.28</v>
@@ -3019,7 +3019,7 @@
         <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>24</v>
@@ -3028,7 +3028,7 @@
         <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3061,10 +3061,10 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>29</v>
@@ -3121,22 +3121,22 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="n">
         <v>160</v>
@@ -3199,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.65</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I21" t="n">
         <v>5.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.6</v>
@@ -3265,7 +3265,7 @@
         <v>2.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.61</v>
@@ -3283,16 +3283,16 @@
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
         <v>140</v>
@@ -3307,7 +3307,7 @@
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -3322,7 +3322,7 @@
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>15.5</v>
@@ -3334,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
         <v>50</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
         <v>4.8</v>
@@ -3397,34 +3397,34 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
         <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
@@ -3607,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3643,7 +3643,7 @@
         <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I24" t="n">
         <v>11</v>
@@ -3679,10 +3679,10 @@
         <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
         <v>1.1</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G25" t="n">
         <v>2.98</v>
@@ -3790,34 +3790,34 @@
         <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="P25" t="n">
         <v>1.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S25" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
@@ -3838,7 +3838,7 @@
         <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3856,7 +3856,7 @@
         <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3868,16 +3868,16 @@
         <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>270</v>
       </c>
       <c r="AN25" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.76</v>
+        <v>2.98</v>
       </c>
       <c r="O28" t="n">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
         <v>2.26</v>
@@ -4327,37 +4327,37 @@
         <v>2.86</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O29" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
         <v>1.24</v>
@@ -4393,7 +4393,7 @@
         <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
         <v>30</v>
@@ -4408,13 +4408,13 @@
         <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
       </c>
       <c r="AN29" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
         <v>230</v>
@@ -4456,7 +4456,7 @@
         <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
         <v>2.94</v>
@@ -4468,13 +4468,13 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>1.46</v>
+        <v>2.42</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>1.46</v>
@@ -4483,76 +4483,76 @@
         <v>2.92</v>
       </c>
       <c r="R30" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="U30" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="V30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
         <v>1.79</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
         <v>1.98</v>
@@ -4597,7 +4597,7 @@
         <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
         <v>1.98</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,10 +4741,10 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P32" t="n">
         <v>1.57</v>
@@ -4753,25 +4753,25 @@
         <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
         <v>4.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="n">
         <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
@@ -4807,7 +4807,7 @@
         <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK32" t="n">
         <v>30</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -5011,16 +5011,16 @@
         <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.67</v>
       </c>
       <c r="P34" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R34" t="n">
         <v>1.14</v>
@@ -5029,10 +5029,10 @@
         <v>6.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U34" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
         <v>1.45</v>
@@ -5044,7 +5044,7 @@
         <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>970</v>
@@ -5053,7 +5053,7 @@
         <v>65</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>7.2</v>
@@ -5071,7 +5071,7 @@
         <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
         <v>110</v>
@@ -5080,7 +5080,7 @@
         <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="n">
         <v>110</v>
@@ -5092,7 +5092,7 @@
         <v>80</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5161,7 +5161,7 @@
         <v>1.3</v>
       </c>
       <c r="S35" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T35" t="n">
         <v>1.79</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,19 +670,19 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,25 +691,25 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.61</v>
@@ -721,7 +721,7 @@
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>7.4</v>
@@ -766,13 +766,13 @@
         <v>140</v>
       </c>
       <c r="AM2" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AN2" t="n">
         <v>130</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +835,13 @@
         <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
         <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T3" t="n">
         <v>1.52</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -985,10 +985,10 @@
         <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>30</v>
@@ -1000,7 +1000,7 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
         <v>22</v>
@@ -1033,7 +1033,7 @@
         <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>55</v>
@@ -1042,7 +1042,7 @@
         <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.16</v>
@@ -1147,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1213,13 +1213,13 @@
         <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
         <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -1246,7 +1246,7 @@
         <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.58</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1480,10 +1480,10 @@
         <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
         <v>1.55</v>
@@ -1501,34 +1501,34 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>2.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1651,10 +1651,10 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -1771,34 +1771,34 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
         <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1810,13 +1810,13 @@
         <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1846,13 +1846,13 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
         <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1906,13 +1906,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1927,19 +1927,19 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.74</v>
@@ -2065,10 +2065,10 @@
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2080,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2101,13 +2101,13 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
         <v>17.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G13" t="n">
         <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,28 +2176,28 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
         <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2209,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="n">
         <v>140</v>
@@ -2218,28 +2218,28 @@
         <v>760</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF13" t="n">
         <v>7.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.4</v>
@@ -2248,13 +2248,13 @@
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>230</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>360</v>
@@ -2290,22 +2290,22 @@
         <v>1.39</v>
       </c>
       <c r="G14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2317,28 +2317,28 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
         <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2347,13 +2347,13 @@
         <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="n">
         <v>390</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
         <v>11.5</v>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
         <v>8.199999999999999</v>
@@ -2428,13 +2428,13 @@
         <v>6.6</v>
       </c>
       <c r="H15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.58</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.6</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
         <v>4.8</v>
@@ -2455,22 +2455,22 @@
         <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W15" t="n">
         <v>1.17</v>
@@ -2479,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>9.4</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="n">
         <v>90</v>
@@ -2560,10 +2560,10 @@
         <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
         <v>7.6</v>
@@ -2578,10 +2578,10 @@
         <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
@@ -2593,13 +2593,13 @@
         <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
@@ -2608,7 +2608,7 @@
         <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
@@ -2635,7 +2635,7 @@
         <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -2662,7 +2662,7 @@
         <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2731,7 +2731,7 @@
         <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.74</v>
@@ -2761,7 +2761,7 @@
         <v>19.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
@@ -2830,10 +2830,10 @@
         <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2845,7 +2845,7 @@
         <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2860,19 +2860,19 @@
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.18</v>
@@ -2893,7 +2893,7 @@
         <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>9.4</v>
@@ -2971,10 +2971,10 @@
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -2986,19 +2986,19 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
         <v>3.15</v>
@@ -3007,7 +3007,7 @@
         <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
         <v>1.43</v>
@@ -3061,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
         <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.7</v>
       </c>
-      <c r="K20" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3127,7 +3127,7 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
@@ -3142,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3160,10 +3160,10 @@
         <v>100</v>
       </c>
       <c r="AA20" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
         <v>12.5</v>
@@ -3202,7 +3202,7 @@
         <v>5.1</v>
       </c>
       <c r="AO20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>5.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
         <v>4.6</v>
@@ -3253,19 +3253,19 @@
         <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
         <v>1.61</v>
@@ -3274,31 +3274,31 @@
         <v>2.54</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA21" t="n">
         <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3310,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>9.800000000000001</v>
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>28</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
         <v>4.8</v>
@@ -3400,7 +3400,7 @@
         <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
@@ -3418,7 +3418,7 @@
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
         <v>18</v>
@@ -3508,10 +3508,10 @@
         <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3526,7 +3526,7 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3535,10 +3535,10 @@
         <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
         <v>2.92</v>
@@ -3547,10 +3547,10 @@
         <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
         <v>1.95</v>
@@ -3559,7 +3559,7 @@
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
         <v>29</v>
@@ -3577,7 +3577,7 @@
         <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3640,19 +3640,19 @@
         <v>1.35</v>
       </c>
       <c r="G24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H24" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.27</v>
@@ -3661,16 +3661,16 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
         <v>1.71</v>
@@ -3679,16 +3679,16 @@
         <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
         <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X24" t="n">
         <v>36</v>
@@ -3739,7 +3739,7 @@
         <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO24" t="n">
         <v>160</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G25" t="n">
         <v>2.98</v>
@@ -3787,22 +3787,22 @@
         <v>2.78</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L25" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O25" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
@@ -3811,13 +3811,13 @@
         <v>1.14</v>
       </c>
       <c r="S25" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
@@ -3856,7 +3856,7 @@
         <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3865,16 +3865,16 @@
         <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM25" t="n">
         <v>270</v>
       </c>
       <c r="AN25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO25" t="n">
         <v>110</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
@@ -3919,7 +3919,7 @@
         <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -3940,7 +3940,7 @@
         <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
@@ -3973,7 +3973,7 @@
         <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
@@ -4072,13 +4072,13 @@
         <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
         <v>1.01</v>
       </c>
       <c r="R27" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
         <v>1.01</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G28" t="n">
         <v>2.58</v>
@@ -4201,16 +4201,16 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
         <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
@@ -4225,10 +4225,10 @@
         <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
@@ -4324,7 +4324,7 @@
         <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
         <v>3.1</v>
@@ -4351,7 +4351,7 @@
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T29" t="n">
         <v>2.46</v>
@@ -4489,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U30" t="n">
         <v>1.65</v>
@@ -4627,7 +4627,7 @@
         <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
         <v>1.26</v>
@@ -4723,10 +4723,10 @@
         <v>1.98</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
@@ -4876,19 +4876,19 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O33" t="n">
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" t="n">
         <v>1.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
         <v>1.26</v>
@@ -5164,10 +5164,10 @@
         <v>3.85</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>1.44</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -820,7 +820,7 @@
         <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -832,7 +832,7 @@
         <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
         <v>1.38</v>
@@ -850,7 +850,7 @@
         <v>2.56</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
@@ -859,7 +859,7 @@
         <v>48</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17.5</v>
@@ -886,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>28</v>
@@ -943,7 +943,7 @@
         <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
         <v>2.28</v>
@@ -967,19 +967,19 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q4" t="n">
         <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S4" t="n">
         <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.66</v>
@@ -991,7 +991,7 @@
         <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
         <v>7.4</v>
@@ -1495,7 +1495,7 @@
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1513,13 +1513,13 @@
         <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
         <v>1.99</v>
@@ -1555,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
         <v>28</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
         <v>2.06</v>
@@ -1645,7 +1645,7 @@
         <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1672,7 +1672,7 @@
         <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
         <v>85</v>
@@ -1699,13 +1699,13 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1750,19 +1750,19 @@
         <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
         <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1789,7 +1789,7 @@
         <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
         <v>2.44</v>
@@ -1813,10 +1813,10 @@
         <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.47</v>
@@ -1906,49 +1906,49 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1960,25 +1960,25 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
         <v>140</v>
@@ -1987,7 +1987,7 @@
         <v>100</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2047,7 +2047,7 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
         <v>1.74</v>
@@ -2065,7 +2065,7 @@
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>2.16</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G13" t="n">
         <v>1.3</v>
@@ -2167,7 +2167,7 @@
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2194,10 +2194,10 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2221,7 +2221,7 @@
         <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>50</v>
@@ -2233,13 +2233,13 @@
         <v>7.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.4</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>5.4</v>
@@ -2329,40 +2329,40 @@
         <v>2.94</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
         <v>95</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="n">
         <v>8.199999999999999</v>
@@ -2371,10 +2371,10 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.5</v>
@@ -2386,13 +2386,13 @@
         <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -2479,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
         <v>9.4</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.48</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
@@ -2617,13 +2617,13 @@
         <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
@@ -2632,7 +2632,7 @@
         <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -2659,10 +2659,10 @@
         <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +2698,7 @@
         <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I17" t="n">
         <v>1.83</v>
@@ -2734,7 +2734,7 @@
         <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G18" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
@@ -2854,7 +2854,7 @@
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>2.08</v>
@@ -2866,7 +2866,7 @@
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
         <v>1.93</v>
@@ -2875,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2893,7 +2893,7 @@
         <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>9.4</v>
@@ -2965,7 +2965,7 @@
         <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -3013,13 +3013,13 @@
         <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
         <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>24</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H20" t="n">
         <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3139,16 +3139,16 @@
         <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3157,7 +3157,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
         <v>370</v>
@@ -3199,7 +3199,7 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO20" t="n">
         <v>170</v>
@@ -3268,13 +3268,13 @@
         <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
         <v>2.54</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>2.32</v>
@@ -3289,7 +3289,7 @@
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
         <v>48</v>
@@ -3316,13 +3316,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3331,13 +3331,13 @@
         <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
         <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="n">
         <v>18</v>
       </c>
-      <c r="Y22" t="n">
-        <v>20</v>
-      </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.02</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.06</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3520,7 +3520,7 @@
         <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3541,34 +3541,34 @@
         <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
@@ -3577,13 +3577,13 @@
         <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>16.5</v>
@@ -3595,7 +3595,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -3604,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="S24" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="X24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="n">
         <v>110</v>
@@ -3703,22 +3703,22 @@
         <v>360</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>26</v>
@@ -3727,22 +3727,22 @@
         <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G25" t="n">
         <v>2.98</v>
@@ -3787,7 +3787,7 @@
         <v>2.78</v>
       </c>
       <c r="K25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,7 +3802,7 @@
         <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I26" t="n">
         <v>4.1</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3952,19 +3952,19 @@
         <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
         <v>32</v>
@@ -3985,7 +3985,7 @@
         <v>48</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -4069,7 +4069,7 @@
         <v>1.02</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
@@ -4324,7 +4324,7 @@
         <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
         <v>3.1</v>
@@ -4336,7 +4336,7 @@
         <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O29" t="n">
         <v>1.71</v>
@@ -4351,7 +4351,7 @@
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="T29" t="n">
         <v>2.46</v>
@@ -4408,7 +4408,7 @@
         <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM29" t="n">
         <v>350</v>
@@ -4456,13 +4456,13 @@
         <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
         <v>2.94</v>
       </c>
       <c r="K30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4474,19 +4474,19 @@
         <v>2.42</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P30" t="n">
         <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R30" t="n">
         <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T30" t="n">
         <v>2.28</v>
@@ -4495,7 +4495,7 @@
         <v>1.65</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W30" t="n">
         <v>1.79</v>
@@ -4585,7 +4585,7 @@
         <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H31" t="n">
         <v>4.5</v>
@@ -4720,16 +4720,16 @@
         <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>3.55</v>
@@ -4741,16 +4741,16 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O32" t="n">
         <v>1.52</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4765,13 +4765,13 @@
         <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
@@ -4789,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
@@ -4798,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
         <v>30</v>
@@ -4810,7 +4810,7 @@
         <v>27</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>70</v>
@@ -4939,7 +4939,7 @@
         <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
         <v>1000</v>
@@ -4951,7 +4951,7 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
         <v>2.3</v>
@@ -5272,7 +5272,7 @@
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,7 +670,7 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
@@ -721,7 +721,7 @@
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="Y2" t="n">
         <v>7.4</v>
@@ -754,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
         <v>80</v>
@@ -805,10 +805,10 @@
         <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
         <v>1.66</v>
@@ -835,7 +835,7 @@
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
         <v>1.87</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -970,25 +970,25 @@
         <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
         <v>2.32</v>
@@ -1123,7 +1123,7 @@
         <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1144,7 +1144,7 @@
         <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1159,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
         <v>70</v>
@@ -1219,7 +1219,7 @@
         <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -1273,10 +1273,10 @@
         <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>5.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
@@ -1480,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J8" t="n">
         <v>4.6</v>
@@ -1513,19 +1513,19 @@
         <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="W8" t="n">
         <v>1.15</v>
@@ -1537,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1627,7 +1627,7 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1645,7 +1645,7 @@
         <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1654,10 +1654,10 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
         <v>1.31</v>
@@ -1666,13 +1666,13 @@
         <v>1.94</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>85</v>
@@ -1681,19 +1681,19 @@
         <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
@@ -1702,22 +1702,22 @@
         <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1777,25 +1777,25 @@
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
         <v>1.51</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1846,7 +1846,7 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -1888,16 +1888,16 @@
         <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.47</v>
@@ -1909,16 +1909,16 @@
         <v>3.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1927,10 +1927,10 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1948,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1963,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -1975,16 +1975,16 @@
         <v>150</v>
       </c>
       <c r="AK11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL11" t="n">
         <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="n">
         <v>14</v>
@@ -2020,10 +2020,10 @@
         <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.35</v>
@@ -2047,7 +2047,7 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.74</v>
@@ -2059,16 +2059,16 @@
         <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.29</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2179,13 +2179,13 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.53</v>
@@ -2194,10 +2194,10 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2221,7 +2221,7 @@
         <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>50</v>
@@ -2230,19 +2230,19 @@
         <v>270</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
@@ -2290,7 +2290,7 @@
         <v>1.37</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H14" t="n">
         <v>10.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2320,7 +2320,7 @@
         <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.48</v>
@@ -2329,7 +2329,7 @@
         <v>2.94</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2338,13 +2338,13 @@
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
         <v>95</v>
@@ -2389,7 +2389,7 @@
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>240</v>
@@ -2464,7 +2464,7 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
@@ -2479,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>9.4</v>
@@ -2566,7 +2566,7 @@
         <v>7.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
@@ -2578,7 +2578,7 @@
         <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>5.8</v>
@@ -2593,16 +2593,16 @@
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
         <v>1.14</v>
@@ -2629,7 +2629,7 @@
         <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>95</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
         <v>13.5</v>
@@ -2656,10 +2656,10 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO16" t="n">
         <v>85</v>
@@ -2701,7 +2701,7 @@
         <v>1.79</v>
       </c>
       <c r="I17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2713,7 +2713,7 @@
         <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4.5</v>
@@ -2791,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>60</v>
@@ -2827,37 +2827,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
         <v>1.9</v>
@@ -2875,16 +2875,16 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
         <v>48</v>
@@ -2896,16 +2896,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG18" t="n">
         <v>9.6</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO18" t="n">
         <v>100</v>
@@ -2962,67 +2962,67 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3040,16 +3040,16 @@
         <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>32</v>
@@ -3058,16 +3058,16 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3130,7 +3130,7 @@
         <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R20" t="n">
         <v>1.59</v>
@@ -3139,7 +3139,7 @@
         <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>1.92</v>
@@ -3235,43 +3235,43 @@
         <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
         <v>5.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.62</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
         <v>1.69</v>
@@ -3283,13 +3283,13 @@
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>48</v>
@@ -3298,7 +3298,7 @@
         <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3310,13 +3310,13 @@
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3331,10 +3331,10 @@
         <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
         <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
         <v>2.94</v>
@@ -3550,10 +3550,10 @@
         <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
@@ -3562,7 +3562,7 @@
         <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
@@ -3595,7 +3595,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -3646,10 +3646,10 @@
         <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>6.4</v>
@@ -3661,13 +3661,13 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
         <v>1.51</v>
@@ -3679,19 +3679,19 @@
         <v>2.24</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
         <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
         <v>3.9</v>
       </c>
       <c r="X24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y24" t="n">
         <v>46</v>
@@ -3700,13 +3700,13 @@
         <v>110</v>
       </c>
       <c r="AA24" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
         <v>40</v>
@@ -3721,13 +3721,13 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK24" t="n">
         <v>12.5</v>
@@ -3742,7 +3742,7 @@
         <v>4.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -3775,19 +3775,19 @@
         <v>2.84</v>
       </c>
       <c r="G25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
         <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3910,7 +3910,7 @@
         <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H26" t="n">
         <v>3.95</v>
@@ -3928,7 +3928,7 @@
         <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>4.5</v>
@@ -3949,7 +3949,7 @@
         <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
@@ -3958,16 +3958,16 @@
         <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
         <v>85</v>
@@ -3982,7 +3982,7 @@
         <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4009,7 +4009,7 @@
         <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO26" t="n">
         <v>42</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G28" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,7 +4201,7 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
@@ -4219,16 +4219,16 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
@@ -4243,7 +4243,7 @@
         <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
         <v>7.4</v>
@@ -4258,7 +4258,7 @@
         <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
         <v>20</v>
@@ -4273,13 +4273,13 @@
         <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
         <v>60</v>
@@ -4600,19 +4600,19 @@
         <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
         <v>2.06</v>
@@ -4624,10 +4624,10 @@
         <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V31" t="n">
         <v>1.26</v>
@@ -4636,7 +4636,7 @@
         <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>16.5</v>
@@ -4666,7 +4666,7 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>70</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4747,7 +4747,7 @@
         <v>1.52</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
         <v>2.36</v>
@@ -4765,13 +4765,13 @@
         <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
@@ -4789,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
@@ -4798,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
         <v>30</v>
@@ -4807,10 +4807,10 @@
         <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
         <v>70</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G34" t="n">
         <v>3.25</v>
@@ -4996,19 +4996,19 @@
         <v>2.92</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J34" t="n">
         <v>2.8</v>
       </c>
       <c r="K34" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N34" t="n">
         <v>2.3</v>
@@ -5017,10 +5017,10 @@
         <v>1.67</v>
       </c>
       <c r="P34" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="R34" t="n">
         <v>1.14</v>
@@ -5035,7 +5035,7 @@
         <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W34" t="n">
         <v>1.44</v>
@@ -5080,7 +5080,7 @@
         <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
         <v>110</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G35" t="n">
         <v>2.74</v>
       </c>
       <c r="H35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3.25</v>
@@ -5149,13 +5149,13 @@
         <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
         <v>1.3</v>
@@ -5164,13 +5164,13 @@
         <v>3.85</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W35" t="n">
         <v>1.57</v>
@@ -5263,7 +5263,7 @@
         <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>4.6</v>
@@ -5272,10 +5272,10 @@
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.1</v>
@@ -5308,7 +5308,7 @@
         <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -673,16 +673,16 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,16 +691,16 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
@@ -709,13 +709,13 @@
         <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
         <v>1.61</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
@@ -730,7 +730,7 @@
         <v>970</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
         <v>8.199999999999999</v>
@@ -739,19 +739,19 @@
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
@@ -760,7 +760,7 @@
         <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>140</v>
@@ -772,7 +772,7 @@
         <v>130</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -808,70 +808,70 @@
         <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
         <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="n">
         <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>150</v>
@@ -901,10 +901,10 @@
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
         <v>5.8</v>
@@ -979,7 +979,7 @@
         <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
         <v>2.74</v>
@@ -1081,7 +1081,7 @@
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
@@ -1120,7 +1120,7 @@
         <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>1.38</v>
@@ -1273,7 +1273,7 @@
         <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.8</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G8" t="n">
         <v>7</v>
       </c>
-      <c r="G8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="n">
         <v>110</v>
       </c>
-      <c r="AL8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1636,13 +1636,13 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
         <v>1.96</v>
@@ -1654,19 +1654,19 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1687,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1711,10 +1711,10 @@
         <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
         <v>50</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
         <v>2.96</v>
@@ -1756,13 +1756,13 @@
         <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1771,31 +1771,31 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
         <v>1.51</v>
@@ -1813,7 +1813,7 @@
         <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.199999999999999</v>
@@ -1846,7 +1846,7 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G11" t="n">
         <v>5.4</v>
       </c>
-      <c r="G11" t="n">
-        <v>5.5</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
@@ -1921,7 +1921,7 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -1930,7 +1930,7 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1939,25 +1939,25 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>42</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
         <v>1.88</v>
@@ -2035,7 +2035,7 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2062,13 +2062,13 @@
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2167,7 +2167,7 @@
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2179,10 +2179,10 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
         <v>1.72</v>
@@ -2194,10 +2194,10 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
         <v>1.07</v>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF13" t="n">
         <v>7.2</v>
@@ -2239,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.199999999999999</v>
@@ -2251,7 +2251,7 @@
         <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
         <v>5</v>
@@ -2290,7 +2290,7 @@
         <v>1.37</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
         <v>10.5</v>
@@ -2305,7 +2305,7 @@
         <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2323,34 +2323,34 @@
         <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
         <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
         <v>95</v>
       </c>
       <c r="AA14" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
@@ -2377,7 +2377,7 @@
         <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
@@ -2389,10 +2389,10 @@
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="I15" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
         <v>2.2</v>
@@ -2458,52 +2458,52 @@
         <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2512,22 +2512,22 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="16">
@@ -2575,34 +2575,34 @@
         <v>5.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
         <v>1.14</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2710,7 +2710,7 @@
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2719,13 +2719,13 @@
         <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
         <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R17" t="n">
         <v>1.45</v>
@@ -2737,25 +2737,25 @@
         <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
         <v>19.5</v>
@@ -2770,10 +2770,10 @@
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -2782,22 +2782,22 @@
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL17" t="n">
         <v>60</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2854,85 +2854,85 @@
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W18" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
         <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA18" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2965,55 +2965,55 @@
         <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
@@ -3025,16 +3025,16 @@
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
         <v>36</v>
@@ -3061,13 +3061,13 @@
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3109,13 +3109,13 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K20" t="n">
         <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3127,10 +3127,10 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.59</v>
@@ -3142,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3160,7 +3160,7 @@
         <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AB20" t="n">
         <v>10</v>
@@ -3172,7 +3172,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
         <v>8.4</v>
@@ -3181,7 +3181,7 @@
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>130</v>
@@ -3193,7 +3193,7 @@
         <v>13.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>150</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H21" t="n">
         <v>5.6</v>
@@ -3244,13 +3244,13 @@
         <v>5.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3262,7 +3262,7 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
         <v>1.6</v>
@@ -3274,16 +3274,16 @@
         <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
@@ -3292,13 +3292,13 @@
         <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
         <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3316,7 +3316,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3331,7 +3331,7 @@
         <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>6.8</v>
@@ -3379,13 +3379,13 @@
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3394,19 +3394,19 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
         <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1.67</v>
@@ -3415,16 +3415,16 @@
         <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
         <v>1.83</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z22" t="n">
         <v>28</v>
@@ -3436,7 +3436,7 @@
         <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>14.5</v>
@@ -3448,7 +3448,7 @@
         <v>14.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
@@ -3469,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO22" t="n">
         <v>36</v>
@@ -3508,10 +3508,10 @@
         <v>2.04</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3520,37 +3520,37 @@
         <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
         <v>2.94</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
         <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
         <v>1.96</v>
@@ -3595,7 +3595,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="G24" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I24" t="n">
         <v>10.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
       <c r="J24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K24" t="n">
         <v>6</v>
       </c>
-      <c r="K24" t="n">
-        <v>6.4</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3667,82 +3667,82 @@
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="V24" t="n">
         <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="X24" t="n">
         <v>30</v>
       </c>
       <c r="Y24" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA24" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO24" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
         <v>3.45</v>
@@ -3787,7 +3787,7 @@
         <v>2.72</v>
       </c>
       <c r="K25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,10 +3802,10 @@
         <v>1.69</v>
       </c>
       <c r="P25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R25" t="n">
         <v>1.14</v>
@@ -3829,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
         <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
         <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
         <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G28" t="n">
         <v>2.68</v>
@@ -4207,7 +4207,7 @@
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
         <v>2.3</v>
@@ -4219,7 +4219,7 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
@@ -4234,7 +4234,7 @@
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
         <v>24</v>
@@ -4267,10 +4267,10 @@
         <v>65</v>
       </c>
       <c r="AJ28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK28" t="n">
         <v>38</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>32</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4378,7 +4378,7 @@
         <v>180</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
         <v>2.26</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
         <v>1.97</v>
@@ -4597,10 +4597,10 @@
         <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4615,13 +4615,13 @@
         <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.83</v>
@@ -4723,10 +4723,10 @@
         <v>1.97</v>
       </c>
       <c r="H32" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4744,10 +4744,10 @@
         <v>2.68</v>
       </c>
       <c r="O32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q32" t="n">
         <v>2.36</v>
@@ -4756,13 +4756,13 @@
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U32" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
         <v>1.2</v>
@@ -4771,19 +4771,19 @@
         <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
         <v>9</v>
@@ -4792,25 +4792,25 @@
         <v>27</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>70</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4858,13 +4858,13 @@
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G34" t="n">
         <v>3.25</v>
@@ -4996,7 +4996,7 @@
         <v>2.92</v>
       </c>
       <c r="I34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
         <v>2.8</v>
@@ -5011,10 +5011,10 @@
         <v>1.16</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P34" t="n">
         <v>1.42</v>
@@ -5038,7 +5038,7 @@
         <v>1.46</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X34" t="n">
         <v>7.4</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
@@ -5152,7 +5152,7 @@
         <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
         <v>2.18</v>
@@ -5170,10 +5170,10 @@
         <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G36" t="n">
         <v>2.3</v>
@@ -5272,10 +5272,10 @@
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
         <v>1.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>2.94</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -694,7 +694,7 @@
         <v>2.18</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -709,7 +709,7 @@
         <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>1.61</v>
@@ -805,7 +805,7 @@
         <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
         <v>1.55</v>
@@ -838,7 +838,7 @@
         <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -850,7 +850,7 @@
         <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
         <v>28</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -961,7 +961,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -970,7 +970,7 @@
         <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
         <v>1.72</v>
@@ -985,13 +985,13 @@
         <v>2.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1000,7 +1000,7 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
         <v>22</v>
@@ -1039,7 +1039,7 @@
         <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1090,7 +1090,7 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,13 +1105,13 @@
         <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
@@ -1126,7 +1126,7 @@
         <v>1.38</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1150,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
         <v>46</v>
@@ -1174,10 +1174,10 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
         <v>2.18</v>
@@ -1216,43 +1216,43 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1261,7 +1261,7 @@
         <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
@@ -1273,10 +1273,10 @@
         <v>190</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>970</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1375,7 +1375,7 @@
         <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
@@ -1390,13 +1390,13 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
         <v>4.7</v>
@@ -1507,28 +1507,28 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
         <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
@@ -1558,7 +1558,7 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1567,22 +1567,22 @@
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK8" t="n">
         <v>95</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
         <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -1621,7 +1621,7 @@
         <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1630,25 +1630,25 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
         <v>3.5</v>
@@ -1678,7 +1678,7 @@
         <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
         <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
         <v>1.62</v>
@@ -1795,16 +1795,16 @@
         <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
         <v>18.5</v>
@@ -1825,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1837,7 +1837,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.8</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1912,7 +1912,7 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1927,10 +1927,10 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1954,13 +1954,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG11" t="n">
         <v>22</v>
@@ -1969,13 +1969,13 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
         <v>90</v>
@@ -1987,7 +1987,7 @@
         <v>110</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
         <v>4.6</v>
@@ -2035,7 +2035,7 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2047,7 +2047,7 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
         <v>1.74</v>
@@ -2068,7 +2068,7 @@
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X12" t="n">
         <v>19.5</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2155,7 +2155,7 @@
         <v>1.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>13.5</v>
@@ -2167,7 +2167,7 @@
         <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,25 +2176,25 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U13" t="n">
         <v>1.74</v>
@@ -2212,10 +2212,10 @@
         <v>44</v>
       </c>
       <c r="Z13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AB13" t="n">
         <v>8.6</v>
@@ -2224,10 +2224,10 @@
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AF13" t="n">
         <v>7.2</v>
@@ -2257,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I15" t="n">
         <v>1.63</v>
@@ -2440,7 +2440,7 @@
         <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2464,10 +2464,10 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>2.58</v>
@@ -2494,13 +2494,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -2557,61 +2557,61 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" t="n">
         <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
         <v>32</v>
@@ -2620,31 +2620,31 @@
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
         <v>13.5</v>
@@ -2653,16 +2653,16 @@
         <v>13.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,88 +2692,88 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.6</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="I17" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
         <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -2782,7 +2782,7 @@
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -2797,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2827,40 +2827,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>5.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.7</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
         <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
@@ -2869,7 +2869,7 @@
         <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
@@ -2878,13 +2878,13 @@
         <v>1.21</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
         <v>42</v>
@@ -2899,7 +2899,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>70</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" t="n">
         <v>80</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
         <v>2.34</v>
@@ -2971,16 +2971,16 @@
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,19 +2992,19 @@
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
         <v>2.26</v>
@@ -3064,7 +3064,7 @@
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
         <v>32</v>
@@ -3109,13 +3109,13 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
         <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3139,16 +3139,16 @@
         <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3157,7 +3157,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
         <v>360</v>
@@ -3199,7 +3199,7 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO20" t="n">
         <v>170</v>
@@ -3250,7 +3250,7 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3259,7 +3259,7 @@
         <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
         <v>2.56</v>
@@ -3268,13 +3268,13 @@
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>2.34</v>
@@ -3334,7 +3334,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.55</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3394,34 +3394,34 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
         <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
         <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
         <v>16.5</v>
@@ -3442,7 +3442,7 @@
         <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
         <v>14.5</v>
@@ -3451,10 +3451,10 @@
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -3469,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>36</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.02</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -3520,7 +3520,7 @@
         <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3550,22 +3550,22 @@
         <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
         <v>11.5</v>
@@ -3580,7 +3580,7 @@
         <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
@@ -3637,37 +3637,37 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.37</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.38</v>
-      </c>
       <c r="H24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
         <v>1.53</v>
@@ -3688,28 +3688,28 @@
         <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X24" t="n">
         <v>30</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="n">
         <v>95</v>
       </c>
       <c r="AA24" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="n">
         <v>130</v>
@@ -3724,7 +3724,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O25" t="n">
         <v>1.69</v>
@@ -3805,7 +3805,7 @@
         <v>1.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.14</v>
@@ -3814,43 +3814,43 @@
         <v>6.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
         <v>8.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>70</v>
       </c>
-      <c r="AB25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AF25" t="n">
         <v>16</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3862,10 +3862,10 @@
         <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK25" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="n">
         <v>110</v>
@@ -3874,7 +3874,7 @@
         <v>270</v>
       </c>
       <c r="AN25" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="n">
         <v>110</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.1</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.27</v>
       </c>
-      <c r="P26" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W26" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
         <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
         <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4195,7 +4195,7 @@
         <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4210,7 +4210,7 @@
         <v>1.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
@@ -4366,10 +4366,10 @@
         <v>1.79</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
@@ -4450,7 +4450,7 @@
         <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
         <v>4.4</v>
@@ -4465,7 +4465,7 @@
         <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M30" t="n">
         <v>1.14</v>
@@ -4498,7 +4498,7 @@
         <v>1.26</v>
       </c>
       <c r="W30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X30" t="n">
         <v>8</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
         <v>1.97</v>
@@ -4594,10 +4594,10 @@
         <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4606,13 +4606,13 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" t="n">
         <v>2.02</v>
@@ -4648,7 +4648,7 @@
         <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>8.6</v>
@@ -4723,10 +4723,10 @@
         <v>1.97</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4735,7 +4735,7 @@
         <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4747,7 +4747,7 @@
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
         <v>2.36</v>
@@ -4795,7 +4795,7 @@
         <v>130</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -4879,19 +4879,19 @@
         <v>1.24</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="n">
         <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4909,13 +4909,13 @@
         <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB33" t="n">
         <v>1000</v>
@@ -4924,7 +4924,7 @@
         <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
@@ -5002,7 +5002,7 @@
         <v>2.8</v>
       </c>
       <c r="K34" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5026,7 +5026,7 @@
         <v>1.14</v>
       </c>
       <c r="S34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T34" t="n">
         <v>2.28</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G35" t="n">
         <v>2.68</v>
@@ -5131,7 +5131,7 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
@@ -5164,7 +5164,7 @@
         <v>3.85</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
@@ -5266,7 +5266,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.1</v>
@@ -5278,7 +5278,7 @@
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
         <v>2.9</v>
@@ -5290,13 +5290,13 @@
         <v>1.64</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T36" t="n">
         <v>1.98</v>
@@ -5305,7 +5305,7 @@
         <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
         <v>1.77</v>
@@ -5317,16 +5317,16 @@
         <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
         <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
         <v>970</v>
@@ -5338,7 +5338,7 @@
         <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH36" t="n">
         <v>26</v>
@@ -5347,13 +5347,13 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
         <v>180</v>
@@ -5363,6 +5363,141 @@
       </c>
       <c r="AO36" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
         <v>2.92</v>
@@ -682,22 +682,22 @@
         <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L2" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q2" t="n">
         <v>3.3</v>
@@ -760,7 +760,7 @@
         <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
         <v>140</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K3" t="n">
         <v>6.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -829,58 +829,58 @@
         <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
         <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
         <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
         <v>28</v>
@@ -889,25 +889,25 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -961,34 +961,34 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -1039,7 +1039,7 @@
         <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1075,16 +1075,16 @@
         <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
         <v>2.36</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>3.85</v>
@@ -1105,7 +1105,7 @@
         <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
@@ -1123,13 +1123,13 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>15</v>
@@ -1138,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
@@ -1153,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1162,13 +1162,13 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
         <v>46</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
@@ -1177,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1252,7 @@
         <v>2.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1261,7 +1261,7 @@
         <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>60</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,7 +1375,7 @@
         <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X7" t="n">
         <v>90</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>2.8</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
       <c r="AD8" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
       </c>
       <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="n">
         <v>32</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>95</v>
-      </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Academia Anzoategui FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>1.37</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>1.86</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,34 +1738,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.86</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>1.54</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1783,76 +1783,76 @@
         <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>2.84</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.2</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>1.82</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.75</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.84</v>
+        <v>5.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>1.78</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>1.79</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>1.21</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE12" t="n">
         <v>20</v>
       </c>
-      <c r="Z12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>55</v>
-      </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.800000000000001</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>13.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="Z13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>15</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>44</v>
       </c>
-      <c r="Z13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>750</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AI13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
       <c r="AM13" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>370</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.14</v>
       </c>
-      <c r="U14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.1</v>
-      </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD14" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.9</v>
+        <v>1.29</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.62</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.63</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.58</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.800000000000001</v>
+        <v>140</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.5</v>
+        <v>740</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.4</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
-        <v>48</v>
+        <v>7.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="AJ15" t="n">
-        <v>160</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.49</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>1.89</v>
       </c>
       <c r="I16" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO16" t="n">
         <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
         <v>4.4</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH17" t="n">
         <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
         <v>90</v>
       </c>
-      <c r="AN17" t="n">
-        <v>50</v>
-      </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="G18" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W18" t="n">
         <v>4</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.32</v>
-      </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AF18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG18" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.26</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="n">
         <v>60</v>
       </c>
-      <c r="AB19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>36</v>
-      </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="G20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
         <v>1.39</v>
       </c>
-      <c r="H20" t="n">
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
         <v>10.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="AG20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL20" t="n">
         <v>36</v>
       </c>
-      <c r="Z20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>32</v>
-      </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z21" t="n">
         <v>23</v>
       </c>
-      <c r="Y21" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>50</v>
-      </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>1.38</v>
       </c>
       <c r="G22" t="n">
-        <v>2.24</v>
+        <v>1.39</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.55</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
-      </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R23" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>9.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
         <v>10.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD24" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>1.98</v>
       </c>
       <c r="G25" t="n">
-        <v>2.86</v>
+        <v>1.99</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.34</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
         <v>80</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>130</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>230</v>
+        <v>11.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>1.36</v>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.84</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N27" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.48</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="V28" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="W28" t="n">
-        <v>1.59</v>
+        <v>2.96</v>
       </c>
       <c r="X28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
         <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="O29" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="H30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
         <v>4.4</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6.2</v>
-      </c>
       <c r="T30" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
         <v>150</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AN30" t="n">
         <v>32</v>
       </c>
-      <c r="AK30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>36</v>
-      </c>
       <c r="AO30" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>2.26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="U31" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="Z31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK31" t="n">
         <v>36</v>
       </c>
-      <c r="AA31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>22</v>
-      </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AO31" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="G32" t="n">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE32" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
         <v>150</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H33" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>1.24</v>
+        <v>3.75</v>
       </c>
       <c r="O33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.27</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>2.92</v>
+        <v>4.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="O34" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="R34" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
         <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AL34" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>1.24</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>3.85</v>
+        <v>1.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA35" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W36" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,125 +5378,530 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" t="n">
         <v>1.01</v>
       </c>
-      <c r="N37" t="n">
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.24</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O40" t="n">
         <v>1.21</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P40" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q40" t="n">
         <v>1.21</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R40" t="n">
         <v>1.18</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S40" t="n">
         <v>1.21</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T40" t="n">
         <v>1.01</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U40" t="n">
         <v>1.01</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V40" t="n">
         <v>1.01</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W40" t="n">
         <v>1.01</v>
       </c>
-      <c r="X37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,7 +670,7 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
         <v>2.74</v>
@@ -679,10 +679,10 @@
         <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="L2" t="n">
         <v>1.59</v>
@@ -694,13 +694,13 @@
         <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
@@ -709,10 +709,10 @@
         <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
         <v>1.52</v>
@@ -727,52 +727,52 @@
         <v>7.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AL2" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -829,16 +829,16 @@
         <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
         <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -847,61 +847,61 @@
         <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
         <v>55</v>
@@ -940,106 +940,106 @@
         <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
         <v>1.51</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
         <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AB4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="n">
         <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1081,7 +1081,7 @@
         <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1111,16 +1111,16 @@
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1150,10 +1150,10 @@
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1162,19 +1162,19 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
         <v>19.5</v>
@@ -1225,16 +1225,16 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1243,10 +1243,10 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.48</v>
@@ -1261,58 +1261,58 @@
         <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="AF6" t="n">
         <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AI6" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AO6" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>2.24</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>60</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,64 +1390,64 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1492,13 +1492,13 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.3</v>
@@ -1507,10 +1507,10 @@
         <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
@@ -1522,22 +1522,22 @@
         <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
         <v>95</v>
@@ -1549,10 +1549,10 @@
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>16.5</v>
@@ -1564,10 +1564,10 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
@@ -1576,13 +1576,13 @@
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.24</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>1.86</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.53</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -1777,34 +1777,34 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
         <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
         <v>9.199999999999999</v>
@@ -1825,25 +1825,25 @@
         <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL10" t="n">
         <v>95</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
@@ -1912,16 +1912,16 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>29</v>
@@ -1948,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>1.78</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
         <v>21</v>
       </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>110</v>
-      </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO13" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
         <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
         <v>4.8</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2323,31 +2323,31 @@
         <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
         <v>100</v>
@@ -2359,16 +2359,16 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2380,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
         <v>30</v>
@@ -2392,7 +2392,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2434,40 +2434,40 @@
         <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
@@ -2476,31 +2476,31 @@
         <v>4.3</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z15" t="n">
         <v>140</v>
       </c>
       <c r="AA15" t="n">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2512,22 +2512,22 @@
         <v>200</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK15" t="n">
         <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
@@ -2566,10 +2566,10 @@
         <v>1.89</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2599,22 +2599,22 @@
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W16" t="n">
         <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
@@ -2626,7 +2626,7 @@
         <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>9.6</v>
@@ -2638,22 +2638,22 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH16" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH16" t="n">
-        <v>18</v>
-      </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
         <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.37</v>
@@ -2716,46 +2716,46 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
         <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
         <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB17" t="n">
         <v>22</v>
@@ -2770,10 +2770,10 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>5.9</v>
@@ -2851,58 +2851,58 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>7.6</v>
@@ -2914,10 +2914,10 @@
         <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
@@ -2929,10 +2929,10 @@
         <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO18" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G19" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.43</v>
@@ -2986,79 +2986,79 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3067,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
         <v>1.43</v>
@@ -3139,70 +3139,70 @@
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
         <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
@@ -3268,7 +3268,7 @@
         <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
         <v>3.3</v>
@@ -3277,28 +3277,28 @@
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
         <v>8.4</v>
@@ -3307,10 +3307,10 @@
         <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
         <v>32</v>
@@ -3331,13 +3331,13 @@
         <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="G22" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3391,73 +3391,73 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA22" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AB22" t="n">
         <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AO22" t="n">
         <v>170</v>
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>15</v>
       </c>
-      <c r="AI23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.61</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
         <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK24" t="n">
         <v>22</v>
       </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
-      </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3802,22 +3802,22 @@
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
         <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
         <v>1.33</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3859,7 +3859,7 @@
         <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -3874,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>36</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="G26" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H26" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -3937,10 +3937,10 @@
         <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R26" t="n">
         <v>1.76</v>
@@ -3952,52 +3952,52 @@
         <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
         <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4006,13 +4006,13 @@
         <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -4042,28 +4042,28 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
         <v>2.34</v>
@@ -4072,7 +4072,7 @@
         <v>1.69</v>
       </c>
       <c r="P27" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q27" t="n">
         <v>3.1</v>
@@ -4081,31 +4081,31 @@
         <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T27" t="n">
         <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB27" t="n">
         <v>7.4</v>
@@ -4117,37 +4117,37 @@
         <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
         <v>27</v>
       </c>
       <c r="AI27" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>110</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>130</v>
-      </c>
       <c r="AK27" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="AM27" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G28" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
         <v>7</v>
@@ -4189,10 +4189,10 @@
         <v>7.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.29</v>
@@ -4207,19 +4207,19 @@
         <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S28" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
         <v>2.22</v>
@@ -4228,19 +4228,19 @@
         <v>1.15</v>
       </c>
       <c r="W28" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
         <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
         <v>11</v>
@@ -4249,10 +4249,10 @@
         <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4261,13 +4261,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
@@ -4279,10 +4279,10 @@
         <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
@@ -4459,19 +4459,19 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O30" t="n">
         <v>1.45</v>
@@ -4489,7 +4489,7 @@
         <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -4498,7 +4498,7 @@
         <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4507,10 +4507,10 @@
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AB30" t="n">
         <v>9</v>
@@ -4519,10 +4519,10 @@
         <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AF30" t="n">
         <v>15.5</v>
@@ -4531,10 +4531,10 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
         <v>44</v>
@@ -4543,16 +4543,16 @@
         <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
         <v>2.26</v>
@@ -4594,10 +4594,10 @@
         <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4612,7 +4612,7 @@
         <v>1.71</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
         <v>3.15</v>
@@ -4636,16 +4636,16 @@
         <v>1.79</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AA31" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AB31" t="n">
         <v>6</v>
@@ -4654,40 +4654,40 @@
         <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="AE31" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
         <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AI31" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="AJ31" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK31" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AL31" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="AM31" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
         <v>46</v>
       </c>
       <c r="AO31" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
         <v>4.4</v>
@@ -4750,7 +4750,7 @@
         <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R32" t="n">
         <v>1.15</v>
@@ -4768,22 +4768,22 @@
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y32" t="n">
         <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC32" t="n">
         <v>7.6</v>
@@ -4792,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AF32" t="n">
         <v>12.5</v>
@@ -4801,28 +4801,28 @@
         <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI32" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AO32" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.42</v>
@@ -4876,37 +4876,37 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
         <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
         <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>16.5</v>
@@ -4927,7 +4927,7 @@
         <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
@@ -4936,10 +4936,10 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ33" t="n">
         <v>23</v>
@@ -4957,7 +4957,7 @@
         <v>15</v>
       </c>
       <c r="AO33" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I34" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5017,7 +5017,7 @@
         <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q34" t="n">
         <v>2.36</v>
@@ -5047,10 +5047,10 @@
         <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB34" t="n">
         <v>7.2</v>
@@ -5059,10 +5059,10 @@
         <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AF34" t="n">
         <v>970</v>
@@ -5071,28 +5071,28 @@
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AK34" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G35" t="n">
         <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>950</v>
+        <v>60</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5176,7 +5176,7 @@
         <v>1.02</v>
       </c>
       <c r="X35" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
@@ -5185,49 +5185,49 @@
         <v>970</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI35" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM35" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -5404,7 +5404,7 @@
         <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K37" t="n">
         <v>3.05</v>
@@ -5413,7 +5413,7 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N37" t="n">
         <v>2.28</v>
@@ -5425,13 +5425,13 @@
         <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>1.14</v>
       </c>
       <c r="S37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T37" t="n">
         <v>2.28</v>
@@ -5440,7 +5440,7 @@
         <v>1.65</v>
       </c>
       <c r="V37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W37" t="n">
         <v>1.45</v>
@@ -5536,7 +5536,7 @@
         <v>2.94</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J38" t="n">
         <v>3.25</v>
@@ -5575,7 +5575,7 @@
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W38" t="n">
         <v>1.55</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
         <v>42</v>
@@ -5629,7 +5629,7 @@
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
         <v>36</v>
@@ -5677,7 +5677,7 @@
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.43</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="P2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
         <v>6.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
         <v>30</v>
@@ -733,22 +733,22 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>500</v>
       </c>
       <c r="AF2" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
         <v>500</v>
@@ -760,7 +760,7 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
         <v>500</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -838,7 +838,7 @@
         <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -850,13 +850,13 @@
         <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="n">
         <v>15.5</v>
@@ -874,10 +874,10 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>350</v>
@@ -898,7 +898,7 @@
         <v>150</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>250</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -985,7 +985,7 @@
         <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
         <v>3.5</v>
@@ -1081,16 +1081,16 @@
         <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,7 +1102,7 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.88</v>
@@ -1117,10 +1117,10 @@
         <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1222,7 +1222,7 @@
         <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,31 +1231,31 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
         <v>1.84</v>
@@ -1273,10 +1273,10 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>500</v>
@@ -1285,10 +1285,10 @@
         <v>700</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="n">
         <v>500</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,37 +1366,37 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>500</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
         <v>500</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
         <v>2.34</v>
@@ -1492,7 +1492,7 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1549,7 +1549,7 @@
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>55</v>
@@ -1618,13 +1618,13 @@
         <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>5.5</v>
@@ -1636,19 +1636,19 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
@@ -1657,13 +1657,13 @@
         <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="X9" t="n">
         <v>90</v>
@@ -1681,7 +1681,7 @@
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>120</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G10" t="n">
         <v>7.4</v>
@@ -1756,13 +1756,13 @@
         <v>1.51</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1789,19 +1789,19 @@
         <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W10" t="n">
         <v>1.15</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
         <v>9.199999999999999</v>
@@ -1822,13 +1822,13 @@
         <v>9.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
@@ -1897,7 +1897,7 @@
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1918,16 +1918,16 @@
         <v>1.97</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
         <v>1.32</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>29</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
         <v>2.62</v>
@@ -2056,7 +2056,7 @@
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
         <v>1.63</v>
@@ -2071,7 +2071,7 @@
         <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2092,7 +2092,7 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13">
@@ -2158,22 +2158,22 @@
         <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.45</v>
@@ -2182,7 +2182,7 @@
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
         <v>2.16</v>
@@ -2191,16 +2191,16 @@
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>1.22</v>
@@ -2209,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z13" t="n">
         <v>9.800000000000001</v>
@@ -2218,22 +2218,22 @@
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO13" t="n">
         <v>14.5</v>
@@ -2293,7 +2293,7 @@
         <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.8</v>
@@ -2305,7 +2305,7 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2317,28 +2317,28 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
         <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -2353,7 +2353,7 @@
         <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -2380,13 +2380,13 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
         <v>9.800000000000001</v>
@@ -2431,16 +2431,16 @@
         <v>13.5</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
         <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2449,25 +2449,25 @@
         <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T15" t="n">
         <v>2.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
@@ -2476,10 +2476,10 @@
         <v>4.3</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="n">
         <v>140</v>
@@ -2488,7 +2488,7 @@
         <v>730</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>13.5</v>
@@ -2497,7 +2497,7 @@
         <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
         <v>7.4</v>
@@ -2569,40 +2569,40 @@
         <v>1.91</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
         <v>2.08</v>
@@ -2611,28 +2611,28 @@
         <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
         <v>34</v>
@@ -2644,25 +2644,25 @@
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -2701,7 +2701,7 @@
         <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
@@ -2710,7 +2710,7 @@
         <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2719,28 +2719,28 @@
         <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
         <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="W17" t="n">
         <v>1.2</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H18" t="n">
         <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2854,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
         <v>2.36</v>
@@ -2863,25 +2863,25 @@
         <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
         <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>38</v>
@@ -2893,10 +2893,10 @@
         <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>42</v>
@@ -2917,7 +2917,7 @@
         <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
@@ -2926,10 +2926,10 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
         <v>270</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -2989,43 +2989,43 @@
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
         <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
         <v>9.199999999999999</v>
@@ -3052,10 +3052,10 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3067,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
@@ -3130,10 +3130,10 @@
         <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
@@ -3151,16 +3151,16 @@
         <v>2.48</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
@@ -3175,7 +3175,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
         <v>9.800000000000001</v>
@@ -3187,7 +3187,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
         <v>16.5</v>
@@ -3196,13 +3196,13 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3256,7 +3256,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3265,13 +3265,13 @@
         <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
         <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
@@ -3280,10 +3280,10 @@
         <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
@@ -3301,10 +3301,10 @@
         <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>34</v>
@@ -3322,10 +3322,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>36</v>
@@ -3337,7 +3337,7 @@
         <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I22" t="n">
         <v>11</v>
       </c>
-      <c r="I22" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3391,40 +3391,40 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
         <v>2.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W22" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="n">
         <v>100</v>
@@ -3442,22 +3442,22 @@
         <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3469,10 +3469,10 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3526,16 +3526,16 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
         <v>1.64</v>
@@ -3544,7 +3544,7 @@
         <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>2.4</v>
@@ -3553,7 +3553,7 @@
         <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X23" t="n">
         <v>24</v>
@@ -3583,13 +3583,13 @@
         <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
         <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>16.5</v>
@@ -3598,16 +3598,16 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM23" t="n">
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3679,16 +3679,16 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
         <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3700,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3712,10 +3712,10 @@
         <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -3724,10 +3724,10 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -3739,7 +3739,7 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3805,37 +3805,37 @@
         <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
         <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
@@ -3847,7 +3847,7 @@
         <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3859,13 +3859,13 @@
         <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3874,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO25" t="n">
         <v>36</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G26" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
         <v>10.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
       <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.26</v>
@@ -3931,34 +3931,34 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S26" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="X26" t="n">
         <v>34</v>
@@ -3967,10 +3967,10 @@
         <v>46</v>
       </c>
       <c r="Z26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3982,37 +3982,37 @@
         <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
         <v>4.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4045,19 +4045,19 @@
         <v>2.76</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K27" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4084,16 +4084,16 @@
         <v>6.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
         <v>1.69</v>
       </c>
       <c r="V27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X27" t="n">
         <v>6.8</v>
@@ -4117,7 +4117,7 @@
         <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
@@ -4138,13 +4138,13 @@
         <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
         <v>500</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I28" t="n">
         <v>7.4</v>
@@ -4192,7 +4192,7 @@
         <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.29</v>
@@ -4201,19 +4201,19 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>2.42</v>
@@ -4222,7 +4222,7 @@
         <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
         <v>1.15</v>
@@ -4231,7 +4231,7 @@
         <v>3.05</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
         <v>32</v>
@@ -4240,31 +4240,31 @@
         <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
         <v>13.5</v>
@@ -4315,16 +4315,16 @@
         <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="n">
         <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>3.45</v>
@@ -4348,10 +4348,10 @@
         <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T29" t="n">
         <v>1.9</v>
@@ -4360,10 +4360,10 @@
         <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4402,10 +4402,10 @@
         <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK29" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="n">
         <v>500</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J30" t="n">
         <v>3.05</v>
@@ -4498,7 +4498,7 @@
         <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4513,7 +4513,7 @@
         <v>500</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>7.4</v>
@@ -4531,7 +4531,7 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
@@ -4588,7 +4588,7 @@
         <v>2.26</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
         <v>5.1</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G32" t="n">
         <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
         <v>4.8</v>
@@ -4768,7 +4768,7 @@
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
         <v>7.8</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G33" t="n">
         <v>1.97</v>
@@ -4861,16 +4861,16 @@
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
@@ -4882,10 +4882,10 @@
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
@@ -4900,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4918,7 +4918,7 @@
         <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC33" t="n">
         <v>8.6</v>
@@ -4927,7 +4927,7 @@
         <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
@@ -4990,7 +4990,7 @@
         <v>1.86</v>
       </c>
       <c r="G34" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
         <v>4.9</v>
@@ -5011,7 +5011,7 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O34" t="n">
         <v>1.53</v>
@@ -5020,7 +5020,7 @@
         <v>1.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R34" t="n">
         <v>1.2</v>
@@ -5125,19 +5125,19 @@
         <v>3.05</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H35" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="I35" t="n">
-        <v>44</v>
+        <v>2.78</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>60</v>
+        <v>5.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5170,64 +5170,64 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="W35" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="X35" t="n">
-        <v>500</v>
+        <v>19.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL35" t="n">
         <v>42</v>
       </c>
-      <c r="AD35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>500</v>
-      </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AO35" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,22 +5281,22 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
@@ -5305,13 +5305,13 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -5395,16 +5395,16 @@
         <v>2.94</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K37" t="n">
         <v>3.05</v>
@@ -5413,10 +5413,10 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O37" t="n">
         <v>1.68</v>
@@ -5425,7 +5425,7 @@
         <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R37" t="n">
         <v>1.14</v>
@@ -5440,7 +5440,7 @@
         <v>1.65</v>
       </c>
       <c r="V37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W37" t="n">
         <v>1.45</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G38" t="n">
         <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3.15</v>
@@ -5554,7 +5554,7 @@
         <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P38" t="n">
         <v>1.8</v>
@@ -5566,7 +5566,7 @@
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T38" t="n">
         <v>1.8</v>
@@ -5575,10 +5575,10 @@
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ38" t="n">
         <v>42</v>
@@ -5665,19 +5665,19 @@
         <v>2.12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L39" t="n">
         <v>1.43</v>
@@ -5701,7 +5701,7 @@
         <v>1.24</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T39" t="n">
         <v>1.98</v>
@@ -5710,7 +5710,7 @@
         <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
         <v>1.77</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G40" t="n">
         <v>1000</v>
@@ -5809,7 +5809,7 @@
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
@@ -5821,7 +5821,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O40" t="n">
         <v>1.21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.72</v>
@@ -685,28 +685,28 @@
         <v>2.84</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
         <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="P2" t="n">
         <v>1.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="T2" t="n">
         <v>2.38</v>
@@ -715,16 +715,16 @@
         <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>6.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
         <v>30</v>
@@ -769,10 +769,10 @@
         <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         <v>1.59</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -838,7 +838,7 @@
         <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -847,10 +847,10 @@
         <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W3" t="n">
         <v>1.2</v>
@@ -859,16 +859,16 @@
         <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -883,7 +883,7 @@
         <v>350</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -892,16 +892,16 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AK3" t="n">
         <v>150</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>55</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1081,7 +1081,7 @@
         <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1090,13 +1090,13 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1105,16 +1105,16 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
@@ -1216,13 +1216,13 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,7 +1237,7 @@
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
         <v>2.68</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,37 +1366,37 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.8</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.15</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>500</v>
       </c>
       <c r="Y7" t="n">
         <v>500</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1501,70 +1501,70 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
         <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="n">
         <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AJ8" t="n">
         <v>32</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
         <v>1.51</v>
@@ -1624,10 +1624,10 @@
         <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,16 +1639,16 @@
         <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>3.35</v>
@@ -1666,7 +1666,7 @@
         <v>2.98</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
         <v>85</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AK9" t="n">
         <v>38</v>
@@ -1786,10 +1786,10 @@
         <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
@@ -1828,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
@@ -1843,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
@@ -1891,7 +1891,7 @@
         <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1936,7 +1936,7 @@
         <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
         <v>15</v>
@@ -1966,10 +1966,10 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>24</v>
@@ -2023,10 +2023,10 @@
         <v>2.96</v>
       </c>
       <c r="H12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.62</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2065,19 +2065,19 @@
         <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
         <v>36</v>
@@ -2092,7 +2092,7 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="n">
         <v>5.4</v>
@@ -2161,7 +2161,7 @@
         <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2197,46 +2197,46 @@
         <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
         <v>2.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB13" t="n">
         <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
         <v>38</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>42</v>
@@ -2245,13 +2245,13 @@
         <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>100</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.86</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.87</v>
       </c>
       <c r="H14" t="n">
         <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2314,13 +2314,13 @@
         <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
         <v>1.51</v>
@@ -2332,16 +2332,16 @@
         <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2353,7 +2353,7 @@
         <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -2380,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
         <v>28</v>
@@ -2389,10 +2389,10 @@
         <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.32</v>
@@ -2458,16 +2458,16 @@
         <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
         <v>2.74</v>
       </c>
       <c r="T15" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
@@ -2476,13 +2476,13 @@
         <v>4.3</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>42</v>
       </c>
       <c r="Z15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="n">
         <v>730</v>
@@ -2497,19 +2497,19 @@
         <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF15" t="n">
         <v>7.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.4</v>
@@ -2518,16 +2518,16 @@
         <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN15" t="n">
         <v>4.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2602,28 +2602,28 @@
         <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
         <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
@@ -2632,7 +2632,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
         <v>34</v>
@@ -2650,7 +2650,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2734,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>2.56</v>
@@ -2749,7 +2749,7 @@
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2836,10 +2836,10 @@
         <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
         <v>5.9</v>
@@ -2848,7 +2848,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
@@ -2857,22 +2857,22 @@
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
         <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
@@ -2893,7 +2893,7 @@
         <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -2905,13 +2905,13 @@
         <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>160</v>
@@ -2920,7 +2920,7 @@
         <v>10.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
         <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
         <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
         <v>15.5</v>
@@ -3022,31 +3022,31 @@
         <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
         <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
@@ -3061,10 +3061,10 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
         <v>60</v>
@@ -3103,10 +3103,10 @@
         <v>1.67</v>
       </c>
       <c r="H20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>4.3</v>
@@ -3115,13 +3115,13 @@
         <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -3154,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
@@ -3169,13 +3169,13 @@
         <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
         <v>9.800000000000001</v>
@@ -3196,13 +3196,13 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.39</v>
@@ -3265,7 +3265,7 @@
         <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
         <v>1.42</v>
@@ -3280,22 +3280,22 @@
         <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
@@ -3307,13 +3307,13 @@
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
         <v>16.5</v>
@@ -3334,10 +3334,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G22" t="n">
         <v>1.38</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
         <v>11</v>
@@ -3382,7 +3382,7 @@
         <v>5.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3397,7 +3397,7 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q22" t="n">
         <v>1.61</v>
@@ -3406,10 +3406,10 @@
         <v>1.61</v>
       </c>
       <c r="S22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
         <v>1.95</v>
@@ -3418,16 +3418,16 @@
         <v>1.1</v>
       </c>
       <c r="W22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
         <v>40</v>
       </c>
       <c r="Z22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA22" t="n">
         <v>400</v>
@@ -3436,10 +3436,10 @@
         <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="n">
         <v>150</v>
@@ -3457,7 +3457,7 @@
         <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
@@ -3466,10 +3466,10 @@
         <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO22" t="n">
         <v>160</v>
@@ -3508,16 +3508,16 @@
         <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.3</v>
@@ -3541,7 +3541,7 @@
         <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
         <v>1.67</v>
@@ -3550,7 +3550,7 @@
         <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>2.52</v>
@@ -3583,7 +3583,7 @@
         <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>17.5</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>1.37</v>
@@ -3679,16 +3679,16 @@
         <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3700,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3715,22 +3715,22 @@
         <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI24" t="n">
         <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
@@ -3739,7 +3739,7 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -3778,13 +3778,13 @@
         <v>2.02</v>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>4.2</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
         <v>29</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>40</v>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>44</v>
@@ -3865,13 +3865,13 @@
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
         <v>11.5</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G26" t="n">
         <v>1.37</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I26" t="n">
         <v>10.5</v>
@@ -3952,25 +3952,25 @@
         <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X26" t="n">
         <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3979,7 +3979,7 @@
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
         <v>130</v>
@@ -3997,7 +3997,7 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4012,7 +4012,7 @@
         <v>4.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4054,7 +4054,7 @@
         <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K27" t="n">
         <v>2.9</v>
@@ -4084,7 +4084,7 @@
         <v>6.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U27" t="n">
         <v>1.69</v>
@@ -4096,7 +4096,7 @@
         <v>1.54</v>
       </c>
       <c r="X27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
         <v>8.800000000000001</v>
@@ -4120,7 +4120,7 @@
         <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.48</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.49</v>
       </c>
       <c r="H28" t="n">
         <v>7.2</v>
@@ -4234,25 +4234,25 @@
         <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
         <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4261,10 +4261,10 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
         <v>13.5</v>
@@ -4279,7 +4279,7 @@
         <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO28" t="n">
         <v>80</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
         <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,10 +4336,10 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P29" t="n">
         <v>1.68</v>
@@ -4363,13 +4363,13 @@
         <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
@@ -4450,10 +4450,10 @@
         <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
         <v>3.65</v>
@@ -4462,7 +4462,7 @@
         <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,37 +4471,37 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="O30" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W30" t="n">
         <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -4513,10 +4513,10 @@
         <v>500</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
         <v>15</v>
@@ -4531,7 +4531,7 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
@@ -4540,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="n">
         <v>500</v>
@@ -4585,7 +4585,7 @@
         <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
@@ -4594,7 +4594,7 @@
         <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>3.05</v>
@@ -4603,10 +4603,10 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O31" t="n">
         <v>1.71</v>
@@ -4633,7 +4633,7 @@
         <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -4678,7 +4678,7 @@
         <v>150</v>
       </c>
       <c r="AL31" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
@@ -4723,16 +4723,16 @@
         <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
         <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.64</v>
@@ -4741,16 +4741,16 @@
         <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="O32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>1.15</v>
@@ -4759,7 +4759,7 @@
         <v>6.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.65</v>
@@ -4768,7 +4768,7 @@
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
         <v>7.8</v>
@@ -4789,7 +4789,7 @@
         <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>500</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I33" t="n">
         <v>5.1</v>
@@ -4867,7 +4867,7 @@
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.4</v>
@@ -4876,7 +4876,7 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4885,7 +4885,7 @@
         <v>1.87</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
@@ -4900,13 +4900,13 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>16.5</v>
@@ -4915,25 +4915,25 @@
         <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>8.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>21</v>
@@ -4942,22 +4942,22 @@
         <v>170</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
         <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4993,7 +4993,7 @@
         <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I34" t="n">
         <v>6</v>
@@ -5122,46 +5122,46 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="G35" t="n">
-        <v>44</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>2.04</v>
       </c>
       <c r="I35" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5170,64 +5170,64 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X35" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
         <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB35" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
         <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
         <v>34</v>
       </c>
       <c r="AJ35" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
         <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>2.74</v>
@@ -5272,7 +5272,7 @@
         <v>2.64</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5299,10 +5299,10 @@
         <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
         <v>1.4</v>
@@ -5407,7 +5407,7 @@
         <v>2.8</v>
       </c>
       <c r="K37" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,7 +5416,7 @@
         <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O37" t="n">
         <v>1.68</v>
@@ -5425,7 +5425,7 @@
         <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="R37" t="n">
         <v>1.14</v>
@@ -5434,7 +5434,7 @@
         <v>6.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U37" t="n">
         <v>1.65</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G38" t="n">
         <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
         <v>3.3</v>
@@ -5557,7 +5557,7 @@
         <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q38" t="n">
         <v>2.18</v>
@@ -5566,7 +5566,7 @@
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
         <v>1.8</v>
@@ -5575,10 +5575,10 @@
         <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -5671,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -5713,7 +5713,7 @@
         <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
         <v>12.5</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.09</v>
       </c>
-      <c r="G40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.04</v>
-      </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="O40" t="n">
         <v>1.21</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>1.21</v>
+        <v>2.32</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,10 +5845,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.98</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="n">
         <v>2.84</v>
       </c>
       <c r="L2" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.79</v>
       </c>
       <c r="P2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
         <v>6.6</v>
@@ -727,7 +727,7 @@
         <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
         <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
         <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>14</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>42</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>44</v>
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.24</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.06</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>500</v>
       </c>
       <c r="Z4" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>500</v>
@@ -1033,13 +1033,13 @@
         <v>500</v>
       </c>
       <c r="AL4" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
         <v>3.5</v>
       </c>
       <c r="H5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.24</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
@@ -1120,7 +1120,7 @@
         <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1210,13 +1210,13 @@
         <v>2.08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1225,31 +1225,31 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
         <v>1.6</v>
@@ -1258,13 +1258,13 @@
         <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z6" t="n">
         <v>500</v>
@@ -1273,7 +1273,7 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
@@ -1288,7 +1288,7 @@
         <v>500</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="n">
         <v>500</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>500</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1525,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
         <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
         <v>2.24</v>
@@ -1663,7 +1663,7 @@
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1747,67 +1747,67 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="I10" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>14</v>
@@ -1819,37 +1819,37 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
         <v>7.2</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.99</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
@@ -1942,10 +1942,10 @@
         <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>9.4</v>
@@ -1981,7 +1981,7 @@
         <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
         <v>15</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
         <v>2.56</v>
@@ -2029,7 +2029,7 @@
         <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2041,31 +2041,31 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
         <v>1.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
@@ -2083,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>8.4</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2113,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>65</v>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>2.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>7.2</v>
@@ -2215,10 +2215,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2230,13 +2230,13 @@
         <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>42</v>
@@ -2245,19 +2245,19 @@
         <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
         <v>4.6</v>
@@ -2299,52 +2299,52 @@
         <v>4.7</v>
       </c>
       <c r="J14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.72</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>36</v>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>17.5</v>
@@ -2383,16 +2383,16 @@
         <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G15" t="n">
         <v>1.3</v>
       </c>
       <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
         <v>13.5</v>
       </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
         <v>4.3</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
         <v>42</v>
@@ -2485,49 +2485,49 @@
         <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>730</v>
+        <v>550</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16">
@@ -2557,61 +2557,61 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.27</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -2620,25 +2620,25 @@
         <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>17.5</v>
@@ -2647,10 +2647,10 @@
         <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2659,10 +2659,10 @@
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2692,55 +2692,55 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W17" t="n">
         <v>1.2</v>
@@ -2749,55 +2749,55 @@
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB17" t="n">
         <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>9.4</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF17" t="n">
         <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
         <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2854,19 +2854,19 @@
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
         <v>2.12</v>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
         <v>110</v>
@@ -2893,19 +2893,19 @@
         <v>500</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="n">
         <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2920,7 +2920,7 @@
         <v>10.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
@@ -2929,10 +2929,10 @@
         <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO18" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
@@ -2983,31 +2983,31 @@
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.27</v>
@@ -3016,7 +3016,7 @@
         <v>2.12</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>17</v>
@@ -3028,7 +3028,7 @@
         <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3040,7 +3040,7 @@
         <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
@@ -3052,10 +3052,10 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.3</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF20" t="n">
         <v>9</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="n">
         <v>15.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.05</v>
@@ -3244,64 +3244,64 @@
         <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
         <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3316,28 +3316,28 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AK21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>36</v>
-      </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
         <v>1.96</v>
@@ -3415,46 +3415,46 @@
         <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
         <v>8.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
         <v>11.5</v>
@@ -3469,10 +3469,10 @@
         <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I23" t="n">
         <v>5.7</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.48</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
         <v>50</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
@@ -3580,13 +3580,13 @@
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
@@ -3601,13 +3601,13 @@
         <v>25</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
         <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.37</v>
@@ -3661,40 +3661,40 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
         <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
         <v>25</v>
@@ -3703,7 +3703,7 @@
         <v>65</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
@@ -3715,22 +3715,22 @@
         <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
         <v>27</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
@@ -3742,7 +3742,7 @@
         <v>14.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H25" t="n">
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3808,7 +3808,7 @@
         <v>1.74</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
         <v>2.9</v>
@@ -3820,13 +3820,13 @@
         <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
         <v>17</v>
@@ -3835,7 +3835,7 @@
         <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
@@ -3850,34 +3850,34 @@
         <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
         <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="G26" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="H26" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="I26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S26" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z26" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4042,31 +4042,31 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.76</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.84</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M27" t="n">
         <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.69</v>
@@ -4075,10 +4075,10 @@
         <v>1.43</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S27" t="n">
         <v>6.8</v>
@@ -4090,25 +4090,25 @@
         <v>1.69</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
         <v>6.8</v>
@@ -4117,37 +4117,37 @@
         <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO27" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4180,82 +4180,82 @@
         <v>1.47</v>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H28" t="n">
         <v>7.2</v>
       </c>
       <c r="I28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K28" t="n">
         <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="T28" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V28" t="n">
         <v>1.15</v>
       </c>
       <c r="W28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
         <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -4264,25 +4264,25 @@
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -4312,73 +4312,73 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.05</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
         <v>1.68</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
         <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AC29" t="n">
         <v>14</v>
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O30" t="n">
         <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
         <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W30" t="n">
         <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
         <v>44</v>
@@ -4513,7 +4513,7 @@
         <v>500</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>7.2</v>
@@ -4525,22 +4525,22 @@
         <v>500</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AK30" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AL30" t="n">
         <v>500</v>
@@ -4585,28 +4585,28 @@
         <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O31" t="n">
         <v>1.71</v>
@@ -4615,13 +4615,13 @@
         <v>1.41</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T31" t="n">
         <v>2.46</v>
@@ -4630,10 +4630,10 @@
         <v>1.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -4648,7 +4648,7 @@
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
@@ -4660,10 +4660,10 @@
         <v>700</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>500</v>
@@ -4684,7 +4684,7 @@
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
         <v>500</v>
@@ -4717,46 +4717,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
         <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
         <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q32" t="n">
         <v>3.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>1.15</v>
       </c>
       <c r="S32" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T32" t="n">
         <v>2.3</v>
@@ -4774,10 +4774,10 @@
         <v>7.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
         <v>500</v>
@@ -4807,7 +4807,7 @@
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
         <v>65</v>
@@ -4819,7 +4819,7 @@
         <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
         <v>500</v>
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
         <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
         <v>36</v>
@@ -4918,10 +4918,10 @@
         <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
         <v>19</v>
@@ -4936,10 +4936,10 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G34" t="n">
         <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P34" t="n">
         <v>1.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="R34" t="n">
         <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U34" t="n">
         <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W34" t="n">
         <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
         <v>970</v>
@@ -5053,10 +5053,10 @@
         <v>700</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD34" t="n">
         <v>500</v>
@@ -5065,13 +5065,13 @@
         <v>700</v>
       </c>
       <c r="AF34" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AI34" t="n">
         <v>700</v>
@@ -5080,10 +5080,10 @@
         <v>500</v>
       </c>
       <c r="AK34" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AL34" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
@@ -5122,64 +5122,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P35" t="n">
         <v>2.04</v>
       </c>
-      <c r="I35" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.86</v>
-      </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W35" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>15</v>
@@ -5188,25 +5188,25 @@
         <v>27</v>
       </c>
       <c r="AB35" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
         <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI35" t="n">
         <v>34</v>
@@ -5215,16 +5215,16 @@
         <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AM35" t="n">
         <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
         <v>14.5</v>
@@ -5257,61 +5257,61 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J36" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>1.45</v>
+        <v>2.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W36" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -5392,37 +5392,37 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="J37" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N37" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="O37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q37" t="n">
         <v>3.2</v>
@@ -5431,7 +5431,7 @@
         <v>1.14</v>
       </c>
       <c r="S37" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T37" t="n">
         <v>2.3</v>
@@ -5440,10 +5440,10 @@
         <v>1.65</v>
       </c>
       <c r="V37" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W37" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X37" t="n">
         <v>7.4</v>
@@ -5455,10 +5455,10 @@
         <v>970</v>
       </c>
       <c r="AA37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB37" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC37" t="n">
         <v>7.2</v>
@@ -5470,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5479,10 +5479,10 @@
         <v>28</v>
       </c>
       <c r="AI37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="n">
         <v>60</v>
@@ -5494,10 +5494,10 @@
         <v>280</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G38" t="n">
         <v>2.8</v>
@@ -5542,37 +5542,37 @@
         <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R38" t="n">
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V38" t="n">
         <v>1.48</v>
@@ -5581,10 +5581,10 @@
         <v>1.55</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
         <v>19.5</v>
@@ -5611,10 +5611,10 @@
         <v>12.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
         <v>42</v>
@@ -5626,10 +5626,10 @@
         <v>48</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO38" t="n">
         <v>36</v>
@@ -5662,64 +5662,64 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
         <v>2.28</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P39" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S39" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W39" t="n">
         <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z39" t="n">
         <v>36</v>
@@ -5728,7 +5728,7 @@
         <v>120</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC39" t="n">
         <v>9</v>
@@ -5743,7 +5743,7 @@
         <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>26</v>
@@ -5758,13 +5758,13 @@
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>110</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="G40" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="H40" t="n">
         <v>1.09</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>1.96</v>
+        <v>4.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,10 +5845,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W40" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,16 +670,16 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
         <v>2.84</v>
@@ -694,7 +694,7 @@
         <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -712,19 +712,19 @@
         <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
         <v>6.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
@@ -745,19 +745,19 @@
         <v>500</v>
       </c>
       <c r="AF2" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
         <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="n">
         <v>500</v>
@@ -811,13 +811,13 @@
         <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.24</v>
@@ -826,28 +826,28 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
         <v>2.78</v>
@@ -856,58 +856,58 @@
         <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="n">
         <v>15.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>14</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH3" t="n">
         <v>18</v>
       </c>
-      <c r="AB3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
         <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1003,25 +1003,25 @@
         <v>500</v>
       </c>
       <c r="AB4" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
         <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF4" t="n">
         <v>500</v>
       </c>
       <c r="AG4" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>500</v>
@@ -1033,16 +1033,16 @@
         <v>500</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,7 +1096,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
@@ -1120,64 +1120,64 @@
         <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
         <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
@@ -1219,34 +1219,34 @@
         <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
         <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T6" t="n">
         <v>2.44</v>
@@ -1255,16 +1255,16 @@
         <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
         <v>500</v>
@@ -1273,7 +1273,7 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
@@ -1285,10 +1285,10 @@
         <v>700</v>
       </c>
       <c r="AF6" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>500</v>
@@ -1309,10 +1309,10 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
@@ -1369,13 +1369,13 @@
         <v>2.18</v>
       </c>
       <c r="O7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P7" t="n">
         <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
@@ -1393,7 +1393,7 @@
         <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
         <v>500</v>
@@ -1408,7 +1408,7 @@
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1483,16 +1483,16 @@
         <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1501,10 +1501,10 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.84</v>
@@ -1522,16 +1522,16 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
         <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1570,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
         <v>1.5</v>
@@ -1681,10 +1681,10 @@
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
@@ -1771,34 +1771,34 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1807,25 +1807,25 @@
         <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
         <v>90</v>
@@ -1849,10 +1849,10 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="11">
@@ -1885,19 +1885,19 @@
         <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1906,22 +1906,22 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
@@ -1930,16 +1930,16 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>28</v>
@@ -1954,10 +1954,10 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
@@ -1966,16 +1966,16 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
@@ -1984,10 +1984,10 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2023,70 +2023,70 @@
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.56</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
         <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
@@ -2101,28 +2101,28 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G13" t="n">
         <v>5.5</v>
       </c>
       <c r="H13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.82</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2188,7 +2188,7 @@
         <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>4.2</v>
@@ -2197,10 +2197,10 @@
         <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
         <v>1.22</v>
@@ -2209,13 +2209,13 @@
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
@@ -2227,7 +2227,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>40</v>
@@ -2236,10 +2236,10 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>150</v>
@@ -2248,16 +2248,16 @@
         <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.95</v>
@@ -2305,70 +2305,70 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
         <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
         <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2377,22 +2377,22 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>1.28</v>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I15" t="n">
         <v>13.5</v>
       </c>
       <c r="J15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2446,7 +2446,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -2458,46 +2458,46 @@
         <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X15" t="n">
         <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z15" t="n">
         <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>160</v>
@@ -2524,10 +2524,10 @@
         <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO15" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="I16" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2581,34 +2581,34 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T16" t="n">
         <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2617,13 +2617,13 @@
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
@@ -2632,28 +2632,28 @@
         <v>9.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH16" t="n">
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
         <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
@@ -2662,7 +2662,7 @@
         <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="I17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2719,34 +2719,34 @@
         <v>4.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>9.800000000000001</v>
@@ -2755,49 +2755,49 @@
         <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
         <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="18">
@@ -2827,52 +2827,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G18" t="n">
         <v>1.35</v>
       </c>
       <c r="H18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
@@ -2881,40 +2881,40 @@
         <v>3.85</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
         <v>110</v>
       </c>
       <c r="AA18" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
         <v>40</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>10.5</v>
@@ -2923,16 +2923,16 @@
         <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K19" t="n">
         <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,34 +2986,34 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3025,10 +3025,10 @@
         <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3037,22 +3037,22 @@
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>18.5</v>
@@ -3061,10 +3061,10 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>60</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="G20" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.42</v>
@@ -3127,10 +3127,10 @@
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
         <v>1.38</v>
@@ -3139,70 +3139,70 @@
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA20" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF20" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.05</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.37</v>
@@ -3256,37 +3256,37 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.7</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
         <v>14</v>
@@ -3307,10 +3307,10 @@
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3319,10 +3319,10 @@
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -3334,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H22" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R22" t="n">
         <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W22" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA22" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
         <v>5.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>1.64</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
         <v>5.7</v>
@@ -3523,7 +3523,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>6.4</v>
@@ -3538,7 +3538,7 @@
         <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
         <v>2.32</v>
@@ -3547,7 +3547,7 @@
         <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V23" t="n">
         <v>1.21</v>
@@ -3562,13 +3562,13 @@
         <v>28</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA23" t="n">
         <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3577,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>12.5</v>
@@ -3589,16 +3589,16 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>65</v>
@@ -3607,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.26</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.65</v>
@@ -3670,25 +3670,25 @@
         <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
         <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>14</v>
@@ -3715,13 +3715,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>44</v>
@@ -3730,7 +3730,7 @@
         <v>27</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
@@ -3739,7 +3739,7 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>32</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>1.35</v>
@@ -3814,43 +3814,43 @@
         <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
@@ -3862,13 +3862,13 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
         <v>70</v>
@@ -3877,7 +3877,7 @@
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3907,109 +3907,109 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G26" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="H26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S26" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="X26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
         <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AO26" t="n">
         <v>130</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H27" t="n">
         <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.69</v>
@@ -4072,7 +4072,7 @@
         <v>1.69</v>
       </c>
       <c r="P27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
         <v>3.15</v>
@@ -4084,16 +4084,16 @@
         <v>6.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U27" t="n">
         <v>1.69</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
         <v>6.8</v>
@@ -4102,7 +4102,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>75</v>
@@ -4114,10 +4114,10 @@
         <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
         <v>15</v>
@@ -4126,7 +4126,7 @@
         <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
         <v>110</v>
@@ -4141,7 +4141,7 @@
         <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
         <v>60</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I28" t="n">
         <v>7.2</v>
       </c>
-      <c r="I28" t="n">
-        <v>7.6</v>
-      </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
         <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="S28" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="T28" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
         <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
         <v>210</v>
       </c>
       <c r="AB28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>3.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H29" t="n">
         <v>2.54</v>
@@ -4324,7 +4324,7 @@
         <v>2.66</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.4</v>
@@ -4363,19 +4363,19 @@
         <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
         <v>500</v>
@@ -4408,7 +4408,7 @@
         <v>230</v>
       </c>
       <c r="AL29" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
@@ -4453,10 +4453,10 @@
         <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -4483,7 +4483,7 @@
         <v>2.46</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
         <v>4.7</v>
@@ -4498,13 +4498,13 @@
         <v>1.39</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>44</v>
@@ -4516,7 +4516,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
         <v>15</v>
@@ -4537,10 +4537,10 @@
         <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AK30" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>500</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>500</v>
@@ -4582,40 +4582,40 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
         <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L31" t="n">
         <v>1.7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
         <v>2.34</v>
       </c>
       <c r="O31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
@@ -4624,67 +4624,67 @@
         <v>7.2</v>
       </c>
       <c r="T31" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
         <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="n">
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
         <v>700</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
         <v>700</v>
       </c>
       <c r="AJ31" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AK31" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AL31" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="n">
         <v>500</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K32" t="n">
         <v>3.05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="n">
         <v>1.16</v>
@@ -4765,10 +4765,10 @@
         <v>1.65</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X32" t="n">
         <v>7.8</v>
@@ -4786,13 +4786,13 @@
         <v>6.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="n">
         <v>12.5</v>
@@ -4801,19 +4801,19 @@
         <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
         <v>500</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G33" t="n">
         <v>1.97</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4900,22 +4900,22 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
         <v>14.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z33" t="n">
         <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4954,10 +4954,10 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G34" t="n">
         <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I34" t="n">
         <v>5.7</v>
@@ -5014,7 +5014,7 @@
         <v>2.74</v>
       </c>
       <c r="O34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
         <v>1.56</v>
@@ -5026,7 +5026,7 @@
         <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T34" t="n">
         <v>2.2</v>
@@ -5083,7 +5083,7 @@
         <v>500</v>
       </c>
       <c r="AL34" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
@@ -5128,13 +5128,13 @@
         <v>4.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I35" t="n">
         <v>2.38</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
@@ -5149,7 +5149,7 @@
         <v>4.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
         <v>2.04</v>
@@ -5170,13 +5170,13 @@
         <v>2.28</v>
       </c>
       <c r="V35" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
         <v>12</v>
@@ -5221,10 +5221,10 @@
         <v>150</v>
       </c>
       <c r="AM35" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="n">
         <v>14.5</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
         <v>1.57</v>
@@ -5296,13 +5296,13 @@
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T36" t="n">
         <v>1.98</v>
       </c>
       <c r="U36" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
         <v>1.5</v>
@@ -5311,58 +5311,58 @@
         <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
@@ -5407,7 +5407,7 @@
         <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L37" t="n">
         <v>1.7</v>
@@ -5464,13 +5464,13 @@
         <v>7.2</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE37" t="n">
         <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK37" t="n">
         <v>60</v>
@@ -5497,7 +5497,7 @@
         <v>95</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -5533,7 +5533,7 @@
         <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3.05</v>
@@ -5566,7 +5566,7 @@
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
         <v>1.81</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
         <v>2.28</v>
@@ -5674,10 +5674,10 @@
         <v>4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.52</v>
@@ -5731,7 +5731,7 @@
         <v>9</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5740,7 +5740,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5800,109 +5800,109 @@
         <v>1.62</v>
       </c>
       <c r="G40" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="H40" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W40" t="n">
         <v>2.3</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -670,22 +670,22 @@
         <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
         <v>2.84</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M2" t="n">
         <v>1.19</v>
@@ -709,16 +709,16 @@
         <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>6.6</v>
@@ -727,10 +727,10 @@
         <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB2" t="n">
         <v>7.6</v>
@@ -754,16 +754,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>500</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>190</v>
       </c>
       <c r="AK2" t="n">
         <v>500</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AM2" t="n">
         <v>500</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.24</v>
@@ -826,49 +826,49 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
         <v>13.5</v>
@@ -877,37 +877,37 @@
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U4" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="n">
         <v>34</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>500</v>
       </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
         <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,31 +1099,31 @@
         <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1132,10 +1132,10 @@
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>14</v>
@@ -1150,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1162,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
         <v>48</v>
@@ -1174,10 +1174,10 @@
         <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.7</v>
@@ -1231,13 +1231,13 @@
         <v>1.18</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q6" t="n">
         <v>3.3</v>
@@ -1249,22 +1249,22 @@
         <v>7.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="n">
         <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
         <v>500</v>
@@ -1273,10 +1273,10 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>500</v>
@@ -1288,10 +1288,10 @@
         <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>700</v>
@@ -1300,7 +1300,7 @@
         <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
         <v>500</v>
@@ -1345,22 +1345,22 @@
         <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.72</v>
       </c>
       <c r="L7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.2</v>
@@ -1372,28 +1372,28 @@
         <v>1.79</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>500</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1507,13 +1507,13 @@
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1525,13 +1525,13 @@
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
         <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
         <v>32</v>
@@ -1582,7 +1582,7 @@
         <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
         <v>5.2</v>
@@ -1636,13 +1636,13 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -1654,7 +1654,7 @@
         <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.69</v>
@@ -1663,10 +1663,10 @@
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>85</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>23</v>
@@ -1705,7 +1705,7 @@
         <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AK10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,22 +1906,22 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.98</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.81</v>
@@ -1930,16 +1930,16 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>28</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1972,10 +1972,10 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
@@ -1984,10 +1984,10 @@
         <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.7</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R12" t="n">
         <v>1.47</v>
@@ -2059,10 +2059,10 @@
         <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>1.64</v>
@@ -2074,7 +2074,7 @@
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>17.5</v>
@@ -2098,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>15.5</v>
@@ -2110,7 +2110,7 @@
         <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
         <v>38</v>
@@ -2122,7 +2122,7 @@
         <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
         <v>2.2</v>
@@ -2194,28 +2194,28 @@
         <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
@@ -2224,40 +2224,40 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
         <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
         <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>4.6</v>
@@ -2302,7 +2302,7 @@
         <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2314,7 +2314,7 @@
         <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.24</v>
@@ -2323,13 +2323,13 @@
         <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
         <v>2.3</v>
@@ -2338,13 +2338,13 @@
         <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
@@ -2359,10 +2359,10 @@
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G15" t="n">
         <v>1.29</v>
       </c>
       <c r="H15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>13.5</v>
@@ -2437,7 +2437,7 @@
         <v>6.8</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2446,28 +2446,28 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T15" t="n">
         <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2485,13 +2485,13 @@
         <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD15" t="n">
         <v>50</v>
@@ -2500,7 +2500,7 @@
         <v>200</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2512,22 +2512,22 @@
         <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK15" t="n">
         <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2590,25 +2590,25 @@
         <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
@@ -2617,52 +2617,52 @@
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
         <v>9.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H17" t="n">
         <v>1.61</v>
@@ -2704,10 +2704,10 @@
         <v>1.62</v>
       </c>
       <c r="J17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2716,25 +2716,25 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
         <v>2.14</v>
@@ -2743,28 +2743,28 @@
         <v>2.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -2773,13 +2773,13 @@
         <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
         <v>170</v>
@@ -2788,13 +2788,13 @@
         <v>75</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO17" t="n">
         <v>7.6</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G18" t="n">
         <v>1.35</v>
       </c>
       <c r="H18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I18" t="n">
         <v>11</v>
       </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
       <c r="J18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S18" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
         <v>3.85</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="AB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10</v>
       </c>
-      <c r="AC18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO18" t="n">
         <v>170</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.89</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.95</v>
@@ -2980,13 +2980,13 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -2995,16 +2995,16 @@
         <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
@@ -3016,10 +3016,10 @@
         <v>2.08</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
         <v>34</v>
@@ -3040,7 +3040,7 @@
         <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>21</v>
@@ -3064,10 +3064,10 @@
         <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
         <v>1.42</v>
@@ -3121,34 +3121,34 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -3157,49 +3157,49 @@
         <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AO20" t="n">
         <v>200</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.8</v>
@@ -3253,49 +3253,49 @@
         <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
@@ -3307,22 +3307,22 @@
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -3334,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>5.5</v>
@@ -3385,52 +3385,52 @@
         <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
@@ -3439,16 +3439,16 @@
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="n">
         <v>8.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -3463,7 +3463,7 @@
         <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>140</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
         <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>6.4</v>
@@ -3532,31 +3532,31 @@
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q23" t="n">
         <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S23" t="n">
         <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V23" t="n">
         <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
         <v>28</v>
@@ -3568,7 +3568,7 @@
         <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3580,25 +3580,25 @@
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
         <v>50</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
         <v>65</v>
@@ -3637,43 +3637,43 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
         <v>3.1</v>
@@ -3685,13 +3685,13 @@
         <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
@@ -3715,22 +3715,22 @@
         <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
         <v>27</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>32</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.6</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.65</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
         <v>3.95</v>
@@ -3796,43 +3796,43 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
         <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>65</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>36</v>
@@ -3859,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
@@ -3874,7 +3874,7 @@
         <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G26" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K26" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W26" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="X26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Y26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA26" t="n">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE26" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>12.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -4054,19 +4054,19 @@
         <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K27" t="n">
         <v>2.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M27" t="n">
         <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O27" t="n">
         <v>1.69</v>
@@ -4084,10 +4084,10 @@
         <v>6.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
         <v>1.39</v>
@@ -4114,7 +4114,7 @@
         <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
         <v>65</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H28" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.27</v>
@@ -4201,88 +4201,88 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="S28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X28" t="n">
         <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
         <v>13</v>
       </c>
-      <c r="AC28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -4321,13 +4321,13 @@
         <v>2.54</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -4339,13 +4339,13 @@
         <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
@@ -4360,10 +4360,10 @@
         <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4414,10 +4414,10 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.52</v>
@@ -4477,10 +4477,10 @@
         <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R30" t="n">
         <v>1.24</v>
@@ -4489,49 +4489,49 @@
         <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>500</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
         <v>15</v>
       </c>
-      <c r="AE30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
@@ -4540,19 +4540,19 @@
         <v>110</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL30" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4594,22 +4594,22 @@
         <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M31" t="n">
         <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O31" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P31" t="n">
         <v>1.42</v>
@@ -4636,7 +4636,7 @@
         <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
         <v>12</v>
@@ -4648,7 +4648,7 @@
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
         <v>7.2</v>
@@ -4660,13 +4660,13 @@
         <v>700</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
         <v>700</v>
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AK31" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AL31" t="n">
         <v>460</v>
@@ -4684,10 +4684,10 @@
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AO31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4726,7 +4726,7 @@
         <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
         <v>2.92</v>
@@ -4795,7 +4795,7 @@
         <v>260</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -4822,7 +4822,7 @@
         <v>40</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.97</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4894,22 +4894,22 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z33" t="n">
         <v>36</v>
@@ -4918,16 +4918,16 @@
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
         <v>11</v>
@@ -4936,10 +4936,10 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4948,13 +4948,13 @@
         <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO33" t="n">
         <v>75</v>
@@ -4990,34 +4990,34 @@
         <v>1.89</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
         <v>5.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
         <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O34" t="n">
         <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
         <v>2.62</v>
@@ -5026,7 +5026,7 @@
         <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
         <v>2.2</v>
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="T35" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U35" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V35" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W35" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF35" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
         <v>15</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AO35" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -5266,7 +5266,7 @@
         <v>2.78</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J36" t="n">
         <v>2.96</v>
@@ -5275,7 +5275,7 @@
         <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M36" t="n">
         <v>1.12</v>
@@ -5290,7 +5290,7 @@
         <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
@@ -5305,7 +5305,7 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W36" t="n">
         <v>1.46</v>
@@ -5404,13 +5404,13 @@
         <v>2.92</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K37" t="n">
         <v>2.98</v>
       </c>
       <c r="L37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M37" t="n">
         <v>1.17</v>
@@ -5431,7 +5431,7 @@
         <v>1.14</v>
       </c>
       <c r="S37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T37" t="n">
         <v>2.3</v>
@@ -5479,7 +5479,7 @@
         <v>28</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
         <v>70</v>
@@ -5494,7 +5494,7 @@
         <v>280</v>
       </c>
       <c r="AN37" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="n">
         <v>70</v>
@@ -5530,7 +5530,7 @@
         <v>2.74</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
@@ -5545,22 +5545,22 @@
         <v>3.25</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
         <v>1.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
         <v>1.3</v>
@@ -5569,7 +5569,7 @@
         <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
         <v>2.06</v>
@@ -5578,16 +5578,16 @@
         <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA38" t="n">
         <v>50</v>
@@ -5608,7 +5608,7 @@
         <v>17.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>18.5</v>
@@ -5626,10 +5626,10 @@
         <v>48</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
         <v>36</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
         <v>3.2</v>
@@ -5686,7 +5686,7 @@
         <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O39" t="n">
         <v>1.46</v>
@@ -5713,16 +5713,16 @@
         <v>1.28</v>
       </c>
       <c r="W39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA39" t="n">
         <v>120</v>
@@ -5731,7 +5731,7 @@
         <v>9</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5740,19 +5740,19 @@
         <v>80</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
         <v>95</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
@@ -5764,7 +5764,7 @@
         <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO39" t="n">
         <v>110</v>
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.62</v>
       </c>
-      <c r="G40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U40" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
         <v>32</v>
@@ -5860,7 +5860,7 @@
         <v>46</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB40" t="n">
         <v>970</v>
@@ -5869,7 +5869,7 @@
         <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
         <v>65</v>
@@ -5884,7 +5884,7 @@
         <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
         <v>21</v>
@@ -5899,7 +5899,7 @@
         <v>110</v>
       </c>
       <c r="AN40" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO40" t="n">
         <v>42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.19</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
@@ -709,67 +709,67 @@
         <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
         <v>17.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>75</v>
       </c>
-      <c r="AI2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>500</v>
-      </c>
       <c r="AK2" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
         <v>600</v>
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="I3" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="n">
         <v>13.5</v>
@@ -880,34 +880,34 @@
         <v>13.5</v>
       </c>
       <c r="AF3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL3" t="n">
         <v>65</v>
       </c>
-      <c r="AG3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
         <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM4" t="n">
         <v>48</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>160</v>
-      </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
         <v>2.28</v>
@@ -1090,55 +1090,55 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
         <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1147,37 +1147,37 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
         <v>24</v>
       </c>
-      <c r="AF5" t="n">
-        <v>25</v>
-      </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
         <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
         <v>5.3</v>
@@ -1222,37 +1222,37 @@
         <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
         <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="P6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
         <v>1.23</v>
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
         <v>500</v>
@@ -1273,10 +1273,10 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
         <v>500</v>
@@ -1285,7 +1285,7 @@
         <v>700</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1297,7 +1297,7 @@
         <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
         <v>85</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K7" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="L7" t="n">
         <v>1.75</v>
@@ -1366,34 +1366,34 @@
         <v>1.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="P7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>500</v>
@@ -1408,10 +1408,10 @@
         <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AD7" t="n">
         <v>500</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -1495,82 +1495,82 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AJ8" t="n">
         <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
@@ -1627,10 +1627,10 @@
         <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1639,31 +1639,31 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1780,7 +1780,7 @@
         <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>1.57</v>
@@ -1789,70 +1789,70 @@
         <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AK10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL10" t="n">
         <v>120</v>
       </c>
-      <c r="AL10" t="n">
-        <v>100</v>
-      </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.08</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -1912,10 +1912,10 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
@@ -1933,13 +1933,13 @@
         <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>28</v>
@@ -1948,16 +1948,16 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.98</v>
+        <v>5.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77</v>
+        <v>2.56</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.48</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.21</v>
-      </c>
       <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
         <v>12</v>
       </c>
-      <c r="Y13" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Z13" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="H14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2314,19 +2314,19 @@
         <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
@@ -2335,22 +2335,22 @@
         <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
         <v>30</v>
@@ -2389,7 +2389,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>46</v>
@@ -2422,97 +2422,97 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.27</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.29</v>
-      </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>5.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
         <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z15" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="n">
-        <v>540</v>
+        <v>730</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
         <v>200</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>13.5</v>
@@ -2521,13 +2521,13 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16">
@@ -2569,40 +2569,40 @@
         <v>1.76</v>
       </c>
       <c r="J16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.3</v>
       </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
         <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>2.3</v>
@@ -2611,10 +2611,10 @@
         <v>1.24</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
@@ -2629,7 +2629,7 @@
         <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>16.5</v>
@@ -2647,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
         <v>60</v>
@@ -2656,10 +2656,10 @@
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
         <v>8.800000000000001</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="G17" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
@@ -2710,7 +2710,7 @@
         <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,82 +2722,82 @@
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
       </c>
       <c r="AJ17" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="18">
@@ -2836,19 +2836,19 @@
         <v>10.5</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>5.9</v>
@@ -2857,37 +2857,37 @@
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
         <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
         <v>3.85</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>42</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="n">
         <v>390</v>
@@ -2896,7 +2896,7 @@
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
         <v>38</v>
@@ -2917,7 +2917,7 @@
         <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
@@ -2932,7 +2932,7 @@
         <v>4.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
@@ -2974,52 +2974,52 @@
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
         <v>34</v>
@@ -3028,46 +3028,46 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="H20" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA20" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AB20" t="n">
         <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="H21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W21" t="n">
         <v>3.15</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>13</v>
       </c>
-      <c r="AE21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>23</v>
-      </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.28</v>
@@ -3526,88 +3526,88 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="X23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
         <v>28</v>
       </c>
-      <c r="Y23" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
         <v>2.3</v>
@@ -3649,28 +3649,28 @@
         <v>3.5</v>
       </c>
       <c r="J24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.7</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
         <v>1.46</v>
@@ -3682,13 +3682,13 @@
         <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
         <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X24" t="n">
         <v>16.5</v>
@@ -3697,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
         <v>60</v>
@@ -3706,7 +3706,7 @@
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>14</v>
@@ -3721,19 +3721,19 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
         <v>75</v>
@@ -3742,7 +3742,7 @@
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="G25" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>2.46</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM25" t="n">
         <v>65</v>
       </c>
-      <c r="AB25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AN25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO25" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>1.26</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>7.4</v>
+        <v>3.95</v>
       </c>
       <c r="K26" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>3.7</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>1.89</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="V26" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>4.8</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN26" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.05</v>
-      </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>1.23</v>
       </c>
       <c r="G27" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>15.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.86</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>2.38</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>1.69</v>
+        <v>1.11</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>3.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.15</v>
+        <v>1.36</v>
       </c>
       <c r="R27" t="n">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="S27" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>5.3</v>
       </c>
       <c r="X27" t="n">
-        <v>6.8</v>
+        <v>50</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>65</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>60</v>
+        <v>2.94</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>1.44</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>5.6</v>
+        <v>2.94</v>
       </c>
       <c r="K28" t="n">
-        <v>5.7</v>
+        <v>2.98</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB28" t="n">
         <v>6.4</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X28" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>90</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.9</v>
+        <v>44</v>
       </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -4312,64 +4312,64 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
@@ -4393,19 +4393,19 @@
         <v>500</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ29" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AK29" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AL29" t="n">
         <v>290</v>
@@ -4447,109 +4447,109 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="G30" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
         <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
         <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
         <v>500</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
         <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AK30" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AL30" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
         <v>600</v>
@@ -4585,16 +4585,16 @@
         <v>2.18</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
         <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K31" t="n">
         <v>3</v>
@@ -4606,55 +4606,55 @@
         <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V31" t="n">
         <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="n">
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC31" t="n">
         <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>700</v>
@@ -4666,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>700</v>
@@ -4675,16 +4675,16 @@
         <v>30</v>
       </c>
       <c r="AK31" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="n">
         <v>600</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="G32" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
         <v>3.05</v>
@@ -4741,85 +4741,85 @@
         <v>1.16</v>
       </c>
       <c r="N32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O32" t="n">
         <v>1.66</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q32" t="n">
         <v>3.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U32" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="n">
         <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="n">
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
         <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -4852,82 +4852,82 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
         <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>110</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
         <v>11</v>
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I34" t="n">
         <v>5.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M34" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.72</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.62</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T34" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U34" t="n">
         <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y34" t="n">
         <v>970</v>
@@ -5068,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AH34" t="n">
         <v>500</v>
@@ -5089,10 +5089,10 @@
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S35" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.58</v>
       </c>
-      <c r="U35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X35" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="n">
         <v>15</v>
       </c>
-      <c r="Z35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN35" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>3.25</v>
@@ -5281,16 +5281,16 @@
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O36" t="n">
         <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
@@ -5305,10 +5305,10 @@
         <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X36" t="n">
         <v>18.5</v>
@@ -5341,7 +5341,7 @@
         <v>500</v>
       </c>
       <c r="AH36" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AI36" t="n">
         <v>500</v>
@@ -5359,10 +5359,10 @@
         <v>500</v>
       </c>
       <c r="AN36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -5392,34 +5392,34 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="J37" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K37" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L37" t="n">
         <v>1.71</v>
       </c>
       <c r="M37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P37" t="n">
         <v>1.43</v>
@@ -5428,82 +5428,82 @@
         <v>3.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC37" t="n">
         <v>7.4</v>
       </c>
-      <c r="T37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD37" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AF37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM37" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AN37" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AO37" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.74</v>
+        <v>4.4</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="I38" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="U38" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="V38" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="W38" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="Z38" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE38" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF38" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AH38" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ38" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AK38" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AL38" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AO38" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="O39" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U39" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="V39" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG39" t="n">
         <v>12</v>
       </c>
-      <c r="Y39" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>970</v>
-      </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,261 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="H40" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>5.1</v>
+        <v>2.96</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="S40" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="X40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="n">
         <v>32</v>
       </c>
-      <c r="Y40" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>46</v>
-      </c>
       <c r="AA40" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="n">
         <v>21</v>
       </c>
       <c r="AE40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X41" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE41" t="n">
         <v>65</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF41" t="n">
         <v>970</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>970</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AI41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>970</v>
       </c>
-      <c r="AI40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK40" t="n">
+      <c r="AK41" t="n">
         <v>970</v>
       </c>
-      <c r="AL40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>42</v>
+      <c r="AL41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -673,82 +673,82 @@
         <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="M2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="P2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>7.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -757,7 +757,7 @@
         <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
         <v>70</v>
@@ -766,13 +766,13 @@
         <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:00:48</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="I3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.46</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.44</v>
       </c>
-      <c r="V3" t="n">
-        <v>3.15</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
         <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
         <v>80</v>
       </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
       <c r="AO3" t="n">
-        <v>4.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -961,64 +961,64 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="n">
         <v>29</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>50</v>
       </c>
       <c r="AB4" t="n">
         <v>24</v>
       </c>
       <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>14.5</v>
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
         <v>38</v>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>2.96</v>
@@ -1231,13 +1231,13 @@
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O6" t="n">
         <v>1.71</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
         <v>3.25</v>
@@ -1249,16 +1249,16 @@
         <v>7.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
@@ -1273,13 +1273,13 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
         <v>700</v>
@@ -1291,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AI6" t="n">
         <v>700</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="J7" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="M7" t="n">
         <v>1.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
         <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB7" t="n">
         <v>500</v>
       </c>
-      <c r="Y7" t="n">
-        <v>500</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>970</v>
-      </c>
       <c r="AC7" t="n">
-        <v>500</v>
+        <v>6.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>500</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.49</v>
@@ -1501,61 +1501,61 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
         <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,25 +1564,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1612,52 +1612,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
         <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
@@ -1669,7 +1669,7 @@
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>480</v>
@@ -1684,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1708,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.39</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.41</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1774,31 +1774,31 @@
         <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
         <v>1.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1810,34 +1810,34 @@
         <v>8.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AK10" t="n">
         <v>140</v>
@@ -1849,10 +1849,10 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.7</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
         <v>28</v>
@@ -1948,10 +1948,10 @@
         <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
         <v>16</v>
@@ -1969,25 +1969,25 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>7</v>
-      </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA12" t="n">
         <v>16.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>570</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.54</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.6</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
         <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK13" t="n">
         <v>34</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.94</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
@@ -2311,22 +2311,22 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
         <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
@@ -2335,7 +2335,7 @@
         <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
         <v>2.06</v>
@@ -2353,7 +2353,7 @@
         <v>90</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2380,19 +2380,19 @@
         <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
         <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
         <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.26</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.27</v>
       </c>
       <c r="H15" t="n">
         <v>14</v>
@@ -2434,64 +2434,64 @@
         <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="n">
         <v>150</v>
       </c>
       <c r="AA15" t="n">
-        <v>730</v>
+        <v>620</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD15" t="n">
         <v>55</v>
@@ -2500,16 +2500,16 @@
         <v>200</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -2521,13 +2521,13 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G16" t="n">
         <v>5.2</v>
       </c>
       <c r="H16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.75</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.76</v>
-      </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2584,7 +2584,7 @@
         <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2.28</v>
@@ -2593,10 +2593,10 @@
         <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
         <v>1.77</v>
@@ -2605,13 +2605,13 @@
         <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10.5</v>
@@ -2620,16 +2620,16 @@
         <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
         <v>16.5</v>
@@ -2647,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
         <v>60</v>
@@ -2662,7 +2662,7 @@
         <v>60</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
         <v>1.63</v>
@@ -2716,43 +2716,43 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
@@ -2761,7 +2761,7 @@
         <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>10.5</v>
@@ -2770,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -2779,13 +2779,13 @@
         <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.34</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>11.5</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="n">
         <v>110</v>
       </c>
       <c r="AA18" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>13.5</v>
@@ -2902,37 +2902,37 @@
         <v>38</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2980,34 +2980,34 @@
         <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
         <v>1.27</v>
@@ -3016,19 +3016,19 @@
         <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
@@ -3043,31 +3043,31 @@
         <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G21" t="n">
         <v>1.46</v>
       </c>
       <c r="H21" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.27</v>
@@ -3256,31 +3256,31 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S21" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W21" t="n">
         <v>3.15</v>
@@ -3292,13 +3292,13 @@
         <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="n">
         <v>220</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
         <v>13</v>
@@ -3307,7 +3307,7 @@
         <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
         <v>10.5</v>
@@ -3319,10 +3319,10 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3331,13 +3331,13 @@
         <v>25</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -3385,34 +3385,34 @@
         <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
         <v>1.47</v>
@@ -3421,40 +3421,40 @@
         <v>1.71</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>50</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>32</v>
@@ -3463,16 +3463,16 @@
         <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3502,52 +3502,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
@@ -3556,58 +3556,58 @@
         <v>3.2</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>75</v>
       </c>
       <c r="AA23" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>28</v>
       </c>
       <c r="AE23" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.65</v>
@@ -3655,7 +3655,7 @@
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3664,7 +3664,7 @@
         <v>4.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
         <v>2.16</v>
@@ -3685,52 +3685,52 @@
         <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -3739,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3772,76 +3772,76 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.67</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I25" t="n">
         <v>5.3</v>
       </c>
-      <c r="I25" t="n">
-        <v>5.4</v>
-      </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="S25" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="T25" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="V25" t="n">
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
         <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>20</v>
@@ -3850,34 +3850,34 @@
         <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U26" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
         <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
         <v>19.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G27" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.2</v>
@@ -4084,16 +4084,16 @@
         <v>1.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X27" t="n">
         <v>50</v>
@@ -4105,10 +4105,10 @@
         <v>170</v>
       </c>
       <c r="AA27" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
         <v>19</v>
@@ -4117,10 +4117,10 @@
         <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
@@ -4129,25 +4129,25 @@
         <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK27" t="n">
         <v>12.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AO27" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
         <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M28" t="n">
         <v>1.17</v>
@@ -4204,37 +4204,37 @@
         <v>2.38</v>
       </c>
       <c r="O28" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P28" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
         <v>28</v>
@@ -4243,7 +4243,7 @@
         <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC28" t="n">
         <v>6.8</v>
@@ -4264,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -4276,10 +4276,10 @@
         <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="n">
         <v>150</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
         <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
         <v>1.55</v>
@@ -4336,16 +4336,16 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.47</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
         <v>1.23</v>
@@ -4354,37 +4354,37 @@
         <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
         <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
         <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>500</v>
@@ -4393,10 +4393,10 @@
         <v>500</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="n">
         <v>290</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J30" t="n">
         <v>2.98</v>
@@ -4468,13 +4468,13 @@
         <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
         <v>1.64</v>
@@ -4483,76 +4483,76 @@
         <v>2.46</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
         <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U30" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.46</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.51</v>
       </c>
       <c r="X30" t="n">
         <v>9.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO30" t="n">
         <v>44</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M31" t="n">
         <v>1.17</v>
@@ -4630,16 +4630,16 @@
         <v>1.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
         <v>6.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
         <v>55</v>
@@ -4657,7 +4657,7 @@
         <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="n">
         <v>11.5</v>
@@ -4666,13 +4666,13 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
         <v>700</v>
       </c>
       <c r="AJ31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK31" t="n">
         <v>38</v>
@@ -4684,7 +4684,7 @@
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
         <v>600</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I32" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.8</v>
       </c>
       <c r="J32" t="n">
         <v>2.98</v>
@@ -4759,43 +4759,43 @@
         <v>6.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U32" t="n">
         <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA32" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
@@ -4807,7 +4807,7 @@
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK32" t="n">
         <v>36</v>
@@ -4816,13 +4816,13 @@
         <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="n">
         <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
         <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
         <v>2.16</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
         <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
         <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
         <v>32</v>
@@ -4936,10 +4936,10 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
         <v>22</v>
@@ -4948,7 +4948,7 @@
         <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
         <v>130</v>
@@ -4957,7 +4957,7 @@
         <v>16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
         <v>5.2</v>
@@ -4999,10 +4999,10 @@
         <v>5.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L34" t="n">
         <v>1.59</v>
@@ -5011,34 +5011,34 @@
         <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="O34" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P34" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="R34" t="n">
         <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
         <v>1.22</v>
       </c>
       <c r="W34" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X34" t="n">
         <v>18.5</v>
@@ -5053,13 +5053,13 @@
         <v>700</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
         <v>14</v>
       </c>
       <c r="AD34" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
         <v>700</v>
@@ -5068,7 +5068,7 @@
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="n">
         <v>500</v>
@@ -5089,7 +5089,7 @@
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>600</v>
+        <v>27</v>
       </c>
       <c r="AO34" t="n">
         <v>600</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G35" t="n">
         <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
         <v>1.28</v>
@@ -5146,79 +5146,79 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="R35" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S35" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="T35" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V35" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W35" t="n">
         <v>1.58</v>
       </c>
       <c r="X35" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF35" t="n">
         <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI35" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM35" t="n">
         <v>65</v>
@@ -5227,7 +5227,7 @@
         <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I36" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="n">
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O36" t="n">
         <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
         <v>1.51</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I37" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J37" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>1.71</v>
@@ -5416,19 +5416,19 @@
         <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.68</v>
       </c>
       <c r="P37" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S37" t="n">
         <v>7.2</v>
@@ -5440,19 +5440,19 @@
         <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W37" t="n">
         <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y37" t="n">
         <v>6.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA37" t="n">
         <v>80</v>
@@ -5497,7 +5497,7 @@
         <v>140</v>
       </c>
       <c r="AO37" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
@@ -5533,13 +5533,13 @@
         <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I38" t="n">
         <v>2.26</v>
       </c>
       <c r="J38" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -5554,7 +5554,7 @@
         <v>2.44</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P38" t="n">
         <v>1.46</v>
@@ -5572,16 +5572,16 @@
         <v>2.32</v>
       </c>
       <c r="U38" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V38" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
         <v>1.27</v>
       </c>
       <c r="X38" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y38" t="n">
         <v>7.2</v>
@@ -5617,7 +5617,7 @@
         <v>90</v>
       </c>
       <c r="AJ38" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK38" t="n">
         <v>110</v>
@@ -5626,10 +5626,10 @@
         <v>150</v>
       </c>
       <c r="AM38" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO38" t="n">
         <v>44</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="G39" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5680,55 +5680,55 @@
         <v>3.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z39" t="n">
         <v>19</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC39" t="n">
         <v>7.2</v>
@@ -5737,16 +5737,16 @@
         <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF39" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
         <v>55</v>
@@ -5758,16 +5758,16 @@
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN39" t="n">
         <v>34</v>
       </c>
       <c r="AO39" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G40" t="n">
         <v>2.28</v>
@@ -5806,10 +5806,10 @@
         <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K40" t="n">
         <v>3.2</v>
@@ -5824,7 +5824,7 @@
         <v>2.96</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
         <v>1.62</v>
@@ -5845,16 +5845,16 @@
         <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W40" t="n">
         <v>1.78</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z40" t="n">
         <v>32</v>
@@ -5875,13 +5875,13 @@
         <v>100</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
         <v>110</v>
@@ -5932,73 +5932,73 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="G41" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S41" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="T41" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U41" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="V41" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="X41" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Y41" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="n">
         <v>970</v>
@@ -6007,13 +6007,13 @@
         <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="n">
         <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH41" t="n">
         <v>970</v>
@@ -6031,13 +6031,13 @@
         <v>34</v>
       </c>
       <c r="AM41" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.79</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>2.18</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.81</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>2.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
-        <v>8.6</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
         <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>60</v>
       </c>
-      <c r="AF2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>110</v>
-      </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:48</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.67</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.44</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD3" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q4" t="n">
         <v>3.25</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.48</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.79</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>7.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="U4" t="n">
-        <v>2.92</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>36</v>
       </c>
-      <c r="Y4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18</v>
-      </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AB4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
         <v>24</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>75</v>
-      </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
         <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>2.76</v>
       </c>
       <c r="L5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.38</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.18</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
         <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>6.2</v>
       </c>
       <c r="Y5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z5" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG5" t="n">
         <v>22</v>
       </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.7</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>700</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Academia Anzoategui FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.85</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>2.74</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.26</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="X7" t="n">
-        <v>6.2</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>480</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>790</v>
       </c>
       <c r="AN7" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>1.36</v>
       </c>
       <c r="I8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V8" t="n">
         <v>3.75</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="W8" t="n">
         <v>1.09</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Academia Anzoategui FC</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.44</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>480</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S10" t="n">
         <v>5.3</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN10" t="n">
         <v>350</v>
       </c>
-      <c r="AK10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>230</v>
-      </c>
       <c r="AO10" t="n">
-        <v>5.1</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2.54</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.36</v>
       </c>
       <c r="S11" t="n">
         <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
         <v>48</v>
       </c>
-      <c r="AF11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.4</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>1.71</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.32</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>22</v>
       </c>
-      <c r="AF12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AK12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL12" t="n">
         <v>29</v>
       </c>
-      <c r="AI12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>140</v>
-      </c>
       <c r="AM12" t="n">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AD13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AH13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>5.3</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>6.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA15" t="n">
         <v>14</v>
       </c>
-      <c r="I15" t="n">
+      <c r="AB15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="J15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>620</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
         <v>55</v>
       </c>
-      <c r="AE15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.8</v>
+        <v>95</v>
       </c>
       <c r="AO15" t="n">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.1</v>
+        <v>1.26</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>1.73</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>1.75</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>2.32</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>4.7</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="Z16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>570</v>
+      </c>
+      <c r="AB16" t="n">
         <v>11</v>
       </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
-        <v>16.5</v>
+        <v>220</v>
       </c>
       <c r="AF16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL16" t="n">
         <v>40</v>
       </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -2683,34 +2683,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>1.81</v>
       </c>
       <c r="H17" t="n">
-        <v>1.63</v>
+        <v>4.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.64</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,82 +2722,82 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
         <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>2.56</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>2.22</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10</v>
       </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>22</v>
-      </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM17" t="n">
         <v>75</v>
       </c>
-      <c r="AL17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>90</v>
-      </c>
       <c r="AN17" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.34</v>
       </c>
-      <c r="H18" t="n">
+      <c r="S18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
         <v>11</v>
       </c>
-      <c r="I18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X18" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AO18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="G20" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>2.24</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
         <v>13</v>
       </c>
-      <c r="Y20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO20" t="n">
         <v>95</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="G21" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="n">
         <v>7.6</v>
       </c>
-      <c r="I21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X21" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22">
@@ -3358,103 +3358,103 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.82</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
         <v>32</v>
@@ -3463,16 +3463,16 @@
         <v>23</v>
       </c>
       <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO22" t="n">
         <v>30</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
         <v>8.6</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.1</v>
-      </c>
       <c r="O23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.23</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W23" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="X24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO24" t="n">
         <v>22</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>14.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P25" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="S25" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="T25" t="n">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="W25" t="n">
-        <v>2.48</v>
+        <v>5.2</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Y25" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>560</v>
       </c>
       <c r="AB25" t="n">
         <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.4</v>
+        <v>2.84</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>2.44</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="P26" t="n">
-        <v>2.58</v>
+        <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="R26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.65</v>
       </c>
-      <c r="S26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.68</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>7.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
         <v>34</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.21</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>1.22</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>2.54</v>
       </c>
       <c r="I27" t="n">
-        <v>16.5</v>
+        <v>2.66</v>
       </c>
       <c r="J27" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>8.6</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>3.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.9</v>
       </c>
-      <c r="T27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="W27" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH27" t="n">
         <v>50</v>
       </c>
-      <c r="Y27" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>32</v>
-      </c>
       <c r="AI27" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.6</v>
+        <v>350</v>
       </c>
       <c r="AK27" t="n">
-        <v>12.5</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.88</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="I28" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="O28" t="n">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="W28" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC28" t="n">
         <v>7</v>
       </c>
-      <c r="Y28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO28" t="n">
         <v>42</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,123 +4298,123 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3.05</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.98</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>5.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM29" t="n">
         <v>500</v>
       </c>
-      <c r="AF29" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>580</v>
-      </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>600</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>2.26</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
         <v>2.98</v>
       </c>
       <c r="K30" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
         <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.32</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.3</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
         <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>700</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AH31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>23</v>
       </c>
-      <c r="AE31" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>32</v>
-      </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO31" t="n">
         <v>90</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="G32" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H32" t="n">
         <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="O32" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="P32" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="R32" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V32" t="n">
         <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="X32" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="Z32" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AF32" t="n">
         <v>21</v>
       </c>
-      <c r="AE32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11</v>
-      </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>500</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>30</v>
-      </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>2.98</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L33" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN33" t="n">
         <v>15</v>
       </c>
-      <c r="Z33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AO33" t="n">
         <v>18</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,111 +4973,111 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>5.2</v>
+        <v>2.86</v>
       </c>
       <c r="I34" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="O34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.58</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
         <v>18.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
         <v>500</v>
       </c>
       <c r="AA34" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AG34" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AH34" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AI34" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="AJ34" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK34" t="n">
         <v>500</v>
@@ -5086,10 +5086,10 @@
         <v>500</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
         <v>600</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.52</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.98</v>
+        <v>2.64</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>2.88</v>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="N35" t="n">
-        <v>5.2</v>
+        <v>2.34</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="P35" t="n">
-        <v>2.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.59</v>
+        <v>3.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="S35" t="n">
-        <v>2.48</v>
+        <v>7.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="U35" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="Y35" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="Z35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF35" t="n">
         <v>23</v>
       </c>
-      <c r="AA35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>21</v>
-      </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AI35" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="AO35" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="G36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.15</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M36" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N36" t="n">
-        <v>2.82</v>
+        <v>2.46</v>
       </c>
       <c r="O36" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="P36" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="R36" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S36" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="T36" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="U36" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="V36" t="n">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="X36" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z36" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>900</v>
+        <v>28</v>
       </c>
       <c r="AB36" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AG36" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AH36" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="AK36" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AM36" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AN36" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,76 +5383,76 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="G37" t="n">
-        <v>3.95</v>
+        <v>2.82</v>
       </c>
       <c r="H37" t="n">
-        <v>2.44</v>
+        <v>2.98</v>
       </c>
       <c r="I37" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L37" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="R37" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="V37" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="W37" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="X37" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="n">
         <v>80</v>
@@ -5461,49 +5461,49 @@
         <v>9.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,30 +5513,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>4.7</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.26</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
         <v>2.96</v>
@@ -5545,100 +5545,100 @@
         <v>3.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="P38" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="R38" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="U38" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AA38" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AF38" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AG38" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>34</v>
       </c>
-      <c r="AI38" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>150</v>
-      </c>
       <c r="AK38" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AL38" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="AN38" t="n">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,396 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.76</v>
+        <v>1.67</v>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="H39" t="n">
-        <v>2.98</v>
+        <v>5.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>2.36</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="S39" t="n">
-        <v>4.5</v>
+        <v>2.74</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="W39" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="X39" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y39" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG39" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12</v>
-      </c>
       <c r="AH39" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK39" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL39" t="n">
         <v>34</v>
       </c>
-      <c r="AL39" t="n">
-        <v>60</v>
-      </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X41" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,118 +667,118 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>1.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>1.16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>2.88</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>18.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>110</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>5.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>1.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>1.29</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>1.31</v>
       </c>
       <c r="L4" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>3.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="O4" t="n">
-        <v>1.71</v>
+        <v>27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>100</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>7.4</v>
+        <v>1.09</v>
       </c>
       <c r="T4" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.12</v>
       </c>
       <c r="X4" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.8</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>1.02</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>2.76</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="R5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>40</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.13</v>
       </c>
-      <c r="S5" t="n">
-        <v>8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.58</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.68</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.28</v>
       </c>
-      <c r="X5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>550</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Academia Anzoategui FC</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.34</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>480</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>790</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Academia Anzoategui FC</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>10.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="W7" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="AK7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>790</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AG8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
         <v>36</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AM8" t="n">
         <v>100</v>
       </c>
-      <c r="AG8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>390</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
       <c r="AN8" t="n">
-        <v>250</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>1.83</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>200</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.2</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.4</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK10" t="n">
         <v>32</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AL10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN10" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>350</v>
-      </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>1.28</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>13.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.08</v>
       </c>
-      <c r="N11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>8.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>4.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.81</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.32</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>1.73</v>
       </c>
       <c r="I13" t="n">
-        <v>11.5</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.22</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>2.34</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>30</v>
       </c>
-      <c r="Y13" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.1</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>140</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="I14" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>1.61</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.72</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>2.6</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AA15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>95</v>
-      </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.26</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.07</v>
-      </c>
       <c r="W16" t="n">
-        <v>4.7</v>
+        <v>2.22</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>570</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>16</v>
       </c>
-      <c r="AD16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13</v>
-      </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,25 +2683,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2710,94 +2710,94 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.35</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="X17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>21</v>
       </c>
-      <c r="Y17" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK17" t="n">
         <v>17</v>
       </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.71</v>
       </c>
-      <c r="H18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.4</v>
-      </c>
       <c r="X18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB18" t="n">
         <v>13</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO18" t="n">
         <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2953,37 +2953,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>7.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>5.1</v>
@@ -2992,82 +2992,82 @@
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17</v>
-      </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.42</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.49</v>
-      </c>
       <c r="R20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.78</v>
       </c>
-      <c r="S20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
         <v>95</v>
       </c>
-      <c r="AF20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.38</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.39</v>
       </c>
-      <c r="H21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.51</v>
       </c>
       <c r="W21" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>32</v>
       </c>
-      <c r="Z21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AF21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>38</v>
       </c>
-      <c r="AE21" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
       <c r="AK21" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.4</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>290</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X22" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN22" t="n">
         <v>4.5</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>16</v>
-      </c>
       <c r="AO22" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.64</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.39</v>
-      </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="U23" t="n">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
         <v>34</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
       </c>
       <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>13.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="W24" t="n">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="Z24" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL24" t="n">
         <v>28</v>
       </c>
-      <c r="AK24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>25</v>
-      </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>2.82</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.23</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>14.5</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>8.199999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>9.6</v>
+        <v>2.38</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.34</v>
+        <v>3.2</v>
       </c>
       <c r="R25" t="n">
-        <v>2.12</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>1.87</v>
+        <v>7.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>5.2</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>560</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>18.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>32</v>
       </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.84</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>2.18</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>2.64</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="M26" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.84</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AB26" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM26" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AO26" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,118 +4033,118 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
         <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>500</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="AO27" t="n">
         <v>600</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.84</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.92</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="M28" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>2.92</v>
+        <v>2.54</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L29" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M29" t="n">
         <v>1.16</v>
       </c>
       <c r="N29" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P29" t="n">
         <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="X29" t="n">
         <v>7.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA29" t="n">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="G30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.26</v>
       </c>
-      <c r="H30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="X30" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF30" t="n">
         <v>11</v>
       </c>
-      <c r="Z30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="P31" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AA31" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK31" t="n">
         <v>80</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>23</v>
-      </c>
       <c r="AL31" t="n">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>17.5</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.64</v>
+        <v>4.9</v>
       </c>
       <c r="O32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.58</v>
       </c>
-      <c r="P32" t="n">
+      <c r="U32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q32" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>700</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
-        <v>700</v>
+        <v>27</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>80</v>
+        <v>14.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>700</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
         <v>65</v>
       </c>
-      <c r="AL32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>580</v>
-      </c>
       <c r="AN32" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>600</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I33" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>5.2</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="P33" t="n">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>2.64</v>
       </c>
       <c r="R33" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="V33" t="n">
         <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="X33" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="AA33" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE33" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AF33" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="AJ33" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AM33" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="AO33" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.9</v>
       </c>
-      <c r="G34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="M34" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="T34" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="X34" t="n">
-        <v>18.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>18</v>
+        <v>6.8</v>
       </c>
       <c r="Z34" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AF34" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>500</v>
+        <v>17.5</v>
       </c>
       <c r="AH34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK34" t="n">
         <v>70</v>
       </c>
-      <c r="AI34" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>500</v>
-      </c>
       <c r="AL34" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AO34" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
       <c r="J35" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="M35" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="N35" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="O35" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="P35" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="R35" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S35" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U35" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="V35" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="W35" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="X35" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z35" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA35" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AH35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AO35" t="n">
         <v>30</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.1</v>
+        <v>2.72</v>
       </c>
       <c r="G36" t="n">
-        <v>5.4</v>
+        <v>2.78</v>
       </c>
       <c r="H36" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
         <v>3.15</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.46</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="R36" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="U36" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="V36" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="W36" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="X36" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
         <v>42</v>
       </c>
       <c r="AF36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI36" t="n">
         <v>60</v>
       </c>
-      <c r="AG36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>42</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>210</v>
-      </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.98</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.27</v>
       </c>
-      <c r="S37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.49</v>
-      </c>
       <c r="W37" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="X37" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD37" t="n">
         <v>19</v>
       </c>
-      <c r="AA37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13</v>
-      </c>
       <c r="AE37" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ37" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,260 +5513,125 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="O38" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="P38" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.48</v>
+        <v>1.82</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="S38" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="X38" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
         <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AA38" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE38" t="n">
         <v>120</v>
       </c>
-      <c r="AB38" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>85</v>
-      </c>
       <c r="AF38" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK38" t="n">
         <v>970</v>
       </c>
-      <c r="AI38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>32</v>
-      </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X39" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO39" t="n">
         <v>90</v>
       </c>
     </row>
